--- a/dripbagTable.xlsx
+++ b/dripbagTable.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkSpace\Java\Spring\Team_DoubleJ_k\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizwork\workspace\Team_DoubleJ_k\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="드립백 사용자정보 테이블 명세" sheetId="3" r:id="rId1"/>
     <sheet name="드립백 구글트랜드 테이블 명세" sheetId="4" r:id="rId2"/>
     <sheet name="드립백 뉴스 테이블 명세" sheetId="5" r:id="rId3"/>
-    <sheet name="댓글 테이블 명세" sheetId="8" r:id="rId4"/>
+    <sheet name="구글댓글 테이블 명세" sheetId="8" r:id="rId4"/>
+    <sheet name="뉴스댓글 테이블 명세" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="128">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -149,323 +150,395 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>제목</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지URL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNIQUE NOT NULL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(225)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR2(225)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(1300)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR2(1300)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Column</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR2(30)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR2(100)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>날짜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(100)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구글트랜드 댓글</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(20)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(30)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR2(20)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR2(100)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>권한</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_roll</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_password</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_email</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가입날짜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일련번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRIMARY KEY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성시각</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조회수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일련번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일련번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRIMARY KEY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR2(1300)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(225)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_seq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성날짜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_gcoment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_user</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gt_seq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gt_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gt_title</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gt_img</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_seq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_title</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_img</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_content</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시날짜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_nRanking</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_gRanking</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일련번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gc_email</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gc_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gc_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gc_title</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gc_explan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gc_score</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gc_click</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_seq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gc_seq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>트랜드 검색어와 JOIN 하기위한 SEQ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구글 댓글 고유 테이블 SEQ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL UNIQUE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뉴스랭킹 댓글</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_nComent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>News 랭킹 댓글 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Google 랭킹 댓글 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>크롤링해온 뉴스 정보를 저장할 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>크롤링해온 구글 트랜드 정보를 저장할 테이블</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>제목</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이미지URL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>내용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOT NULL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UNIQUE NOT NULL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열(225)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nVARCHAR2(225)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열(1300)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nVARCHAR2(1300)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Column</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>크롤링해온 늬우스 정보를 저장할 테이블</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nVARCHAR2(30)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nVARCHAR2(100)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>날짜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열(10)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열(100)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>구글트랜드 주제를 보고 끄적거린 내용을 저장할 테이블</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>구글트랜드 댓글</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gd_email</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gd_date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gd_title</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>설명내용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열(20)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열(30)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gd_explan</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nVARCHAR2(20)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOT NULL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nVARCHAR2(100)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>권한</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>숫자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>d_roll</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>d_password</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>d_email</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUMBER</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가입날짜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열(10)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>d_date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(10)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>일련번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUMBER</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gd_seq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>숫자형</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRIMARY KEY</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gd_score</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>좋아요</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>작성시각</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gd_time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(10)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>트랜드 검색어와 JOIN 하기위한 seq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>조회수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gd_click</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>작성자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>일련번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(10)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOT NULL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열(10)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>일련번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>숫자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUMBER</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRIMARY KEY</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nVARCHAR2(1300)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이미지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열(225)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>d_seq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_news</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>작성날짜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_gcoment</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_user</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_google</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gt_seq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gt_date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gt_title</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gt_img</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>n_seq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>n_date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>n_title</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>n_img</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>n_content</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시날짜</t>
+    <t>nc_seq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nc_email</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nc_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nc_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nc_title</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nc_explan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nc_score</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nc_click</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뉴스 댓글 고유 테이블 SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -737,7 +810,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -799,6 +872,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1836,61 +1912,61 @@
       <c r="C1" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="27" t="s">
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="27"/>
+      <c r="I1" s="28"/>
       <c r="J1" s="12">
         <v>44109</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="28"/>
+      <c r="L1" s="29"/>
     </row>
     <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="29"/>
+      <c r="I2" s="30"/>
       <c r="J2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="30"/>
-      <c r="L2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="32"/>
     </row>
     <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="25"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
@@ -1938,7 +2014,7 @@
         <v>21</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>22</v>
@@ -1960,16 +2036,16 @@
         <v>28</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
@@ -1985,16 +2061,16 @@
         <v>27</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
@@ -2007,19 +2083,19 @@
         <v>4</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
@@ -2032,19 +2108,19 @@
         <v>5</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
@@ -2238,7 +2314,7 @@
   <dimension ref="B1:L20"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:H8"/>
+      <selection activeCell="C3" sqref="C3:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2894,61 +2970,61 @@
       <c r="C1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="27" t="s">
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="27"/>
+      <c r="I1" s="28"/>
       <c r="J1" s="12">
         <v>44109</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="28"/>
+      <c r="L1" s="29"/>
     </row>
     <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="29"/>
+      <c r="I2" s="30"/>
       <c r="J2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="30"/>
-      <c r="L2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="32"/>
     </row>
     <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="24"/>
+      <c r="C3" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="25"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
@@ -2990,13 +3066,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>22</v>
@@ -3015,19 +3091,19 @@
         <v>2</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="13"/>
@@ -3040,19 +3116,19 @@
         <v>3</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="G7" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
@@ -3065,16 +3141,16 @@
         <v>4</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
@@ -3283,8 +3359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3941,61 +4017,61 @@
       <c r="C1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="27" t="s">
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="27"/>
+      <c r="I1" s="28"/>
       <c r="J1" s="12">
         <v>44109</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="28"/>
+      <c r="L1" s="29"/>
     </row>
     <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="29"/>
+      <c r="I2" s="30"/>
       <c r="J2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="30"/>
-      <c r="L2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="32"/>
     </row>
     <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="24"/>
+      <c r="C3" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="25"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
@@ -4008,7 +4084,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>17</v>
@@ -4037,20 +4113,20 @@
         <v>1</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -4062,19 +4138,19 @@
         <v>2</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>23</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
@@ -4087,19 +4163,19 @@
         <v>3</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>23</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
@@ -4112,16 +4188,16 @@
         <v>4</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="13"/>
@@ -4135,16 +4211,16 @@
         <v>5</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="13"/>
@@ -4339,7 +4415,7 @@
   <dimension ref="B1:Q20"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4993,63 +5069,63 @@
         <v>9</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="27" t="s">
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="27"/>
+      <c r="I1" s="28"/>
       <c r="J1" s="12">
         <v>44123</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="28"/>
+      <c r="L1" s="29"/>
     </row>
     <row r="2" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="29"/>
+      <c r="I2" s="30"/>
       <c r="J2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="30"/>
-      <c r="L2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="32"/>
     </row>
     <row r="3" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="24"/>
+      <c r="C3" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="25"/>
     </row>
     <row r="4" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
@@ -5086,76 +5162,77 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="7">
         <v>1</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="17" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="9">
         <v>2</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H6" s="13"/>
+      <c r="C6" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
-      <c r="L6" s="22"/>
+      <c r="L6" s="22" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="7" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B7" s="9">
         <v>3</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E7" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
@@ -5168,19 +5245,19 @@
         <v>4</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>57</v>
+        <v>23</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
@@ -5193,19 +5270,19 @@
         <v>5</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>34</v>
+        <v>68</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
@@ -5218,18 +5295,20 @@
         <v>6</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" s="13"/>
+        <v>23</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
@@ -5241,16 +5320,16 @@
         <v>7</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
@@ -5264,21 +5343,21 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="13"/>
     </row>
-    <row r="12" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B12" s="9">
         <v>8</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
@@ -5291,6 +5370,19 @@
       <c r="B13" s="9">
         <v>9</v>
       </c>
+      <c r="C13" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="13"/>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
       <c r="J13" s="13"/>
@@ -5416,4 +5508,1104 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:Q20"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="258" width="8.88671875" style="1"/>
+    <col min="259" max="259" width="1.33203125" style="1" customWidth="1"/>
+    <col min="260" max="260" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="264" max="265" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="267" max="267" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="268" max="268" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="269" max="514" width="8.88671875" style="1"/>
+    <col min="515" max="515" width="1.33203125" style="1" customWidth="1"/>
+    <col min="516" max="516" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="517" max="517" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="518" max="518" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="519" max="519" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="520" max="521" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="522" max="522" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="523" max="523" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="524" max="524" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="525" max="770" width="8.88671875" style="1"/>
+    <col min="771" max="771" width="1.33203125" style="1" customWidth="1"/>
+    <col min="772" max="772" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="773" max="773" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="774" max="774" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="775" max="775" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="776" max="777" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="778" max="778" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="779" max="779" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="780" max="780" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="781" max="1026" width="8.88671875" style="1"/>
+    <col min="1027" max="1027" width="1.33203125" style="1" customWidth="1"/>
+    <col min="1028" max="1028" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1029" max="1029" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1030" max="1030" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1031" max="1031" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1033" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="1034" max="1034" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1035" max="1035" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1036" max="1036" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1037" max="1282" width="8.88671875" style="1"/>
+    <col min="1283" max="1283" width="1.33203125" style="1" customWidth="1"/>
+    <col min="1284" max="1284" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1285" max="1285" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1286" max="1286" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1287" max="1287" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1289" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="1290" max="1290" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1291" max="1291" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1292" max="1292" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1293" max="1538" width="8.88671875" style="1"/>
+    <col min="1539" max="1539" width="1.33203125" style="1" customWidth="1"/>
+    <col min="1540" max="1540" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1541" max="1541" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1542" max="1542" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1543" max="1543" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1545" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="1546" max="1546" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1547" max="1547" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1548" max="1548" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1549" max="1794" width="8.88671875" style="1"/>
+    <col min="1795" max="1795" width="1.33203125" style="1" customWidth="1"/>
+    <col min="1796" max="1796" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1797" max="1797" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1798" max="1798" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1799" max="1799" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1800" max="1801" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="1802" max="1802" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1803" max="1803" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1804" max="1804" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1805" max="2050" width="8.88671875" style="1"/>
+    <col min="2051" max="2051" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2052" max="2052" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2053" max="2053" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2054" max="2054" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2055" max="2055" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2057" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2058" max="2058" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2059" max="2059" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2060" max="2060" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2061" max="2306" width="8.88671875" style="1"/>
+    <col min="2307" max="2307" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2308" max="2308" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2309" max="2309" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2310" max="2310" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2311" max="2311" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2313" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2314" max="2314" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2315" max="2315" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2316" max="2316" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2317" max="2562" width="8.88671875" style="1"/>
+    <col min="2563" max="2563" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2564" max="2564" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2565" max="2565" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2566" max="2566" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2567" max="2567" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2569" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2570" max="2570" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2571" max="2571" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2572" max="2572" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2573" max="2818" width="8.88671875" style="1"/>
+    <col min="2819" max="2819" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2820" max="2820" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2821" max="2821" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2822" max="2822" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2823" max="2823" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2824" max="2825" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2826" max="2826" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2827" max="2827" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2828" max="2828" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2829" max="3074" width="8.88671875" style="1"/>
+    <col min="3075" max="3075" width="1.33203125" style="1" customWidth="1"/>
+    <col min="3076" max="3076" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3077" max="3077" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3078" max="3078" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3079" max="3079" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3081" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="3082" max="3082" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3083" max="3083" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3084" max="3084" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3085" max="3330" width="8.88671875" style="1"/>
+    <col min="3331" max="3331" width="1.33203125" style="1" customWidth="1"/>
+    <col min="3332" max="3332" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3333" max="3333" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3334" max="3334" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3335" max="3335" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3337" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="3338" max="3338" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3339" max="3339" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3340" max="3340" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3341" max="3586" width="8.88671875" style="1"/>
+    <col min="3587" max="3587" width="1.33203125" style="1" customWidth="1"/>
+    <col min="3588" max="3588" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3589" max="3589" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3590" max="3590" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3591" max="3591" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3593" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="3594" max="3594" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3595" max="3595" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3596" max="3596" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3597" max="3842" width="8.88671875" style="1"/>
+    <col min="3843" max="3843" width="1.33203125" style="1" customWidth="1"/>
+    <col min="3844" max="3844" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3845" max="3845" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3846" max="3846" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3847" max="3847" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3848" max="3849" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="3850" max="3850" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3851" max="3851" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3852" max="3852" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3853" max="4098" width="8.88671875" style="1"/>
+    <col min="4099" max="4099" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4100" max="4100" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4101" max="4101" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4102" max="4102" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4103" max="4103" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4105" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4106" max="4106" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4107" max="4107" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4108" max="4108" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4109" max="4354" width="8.88671875" style="1"/>
+    <col min="4355" max="4355" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4356" max="4356" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4357" max="4357" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4358" max="4358" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4359" max="4359" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4361" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4362" max="4362" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4363" max="4363" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4364" max="4364" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4365" max="4610" width="8.88671875" style="1"/>
+    <col min="4611" max="4611" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4612" max="4612" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4613" max="4613" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4614" max="4614" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4615" max="4615" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4617" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4618" max="4618" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4619" max="4619" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4620" max="4620" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4621" max="4866" width="8.88671875" style="1"/>
+    <col min="4867" max="4867" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4868" max="4868" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4869" max="4869" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4870" max="4870" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4871" max="4871" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4872" max="4873" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4874" max="4874" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4875" max="4875" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4876" max="4876" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4877" max="5122" width="8.88671875" style="1"/>
+    <col min="5123" max="5123" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5124" max="5124" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5125" max="5125" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5126" max="5126" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5127" max="5127" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5129" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5130" max="5130" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5131" max="5131" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5132" max="5132" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5133" max="5378" width="8.88671875" style="1"/>
+    <col min="5379" max="5379" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5380" max="5380" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5381" max="5381" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5382" max="5382" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5383" max="5383" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5385" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5386" max="5386" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5387" max="5387" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5388" max="5388" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5389" max="5634" width="8.88671875" style="1"/>
+    <col min="5635" max="5635" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5636" max="5636" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5637" max="5637" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5638" max="5638" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5639" max="5639" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5641" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5642" max="5642" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5643" max="5643" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5644" max="5644" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5645" max="5890" width="8.88671875" style="1"/>
+    <col min="5891" max="5891" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5892" max="5892" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5893" max="5893" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5894" max="5894" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5895" max="5895" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5896" max="5897" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5898" max="5898" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5899" max="5899" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5900" max="5900" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5901" max="6146" width="8.88671875" style="1"/>
+    <col min="6147" max="6147" width="1.33203125" style="1" customWidth="1"/>
+    <col min="6148" max="6148" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6149" max="6149" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6150" max="6150" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6151" max="6151" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6153" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="6154" max="6154" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6155" max="6155" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6156" max="6156" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6157" max="6402" width="8.88671875" style="1"/>
+    <col min="6403" max="6403" width="1.33203125" style="1" customWidth="1"/>
+    <col min="6404" max="6404" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6405" max="6405" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6406" max="6406" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6407" max="6407" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6409" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="6410" max="6410" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6411" max="6411" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6412" max="6412" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6413" max="6658" width="8.88671875" style="1"/>
+    <col min="6659" max="6659" width="1.33203125" style="1" customWidth="1"/>
+    <col min="6660" max="6660" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6661" max="6661" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6662" max="6662" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6663" max="6663" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6665" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="6666" max="6666" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6667" max="6667" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6668" max="6668" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6669" max="6914" width="8.88671875" style="1"/>
+    <col min="6915" max="6915" width="1.33203125" style="1" customWidth="1"/>
+    <col min="6916" max="6916" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6917" max="6917" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6918" max="6918" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6919" max="6919" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6920" max="6921" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="6922" max="6922" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6923" max="6923" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6924" max="6924" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6925" max="7170" width="8.88671875" style="1"/>
+    <col min="7171" max="7171" width="1.33203125" style="1" customWidth="1"/>
+    <col min="7172" max="7172" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7173" max="7173" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7174" max="7174" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7175" max="7175" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7177" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7178" max="7178" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7179" max="7179" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7180" max="7180" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7181" max="7426" width="8.88671875" style="1"/>
+    <col min="7427" max="7427" width="1.33203125" style="1" customWidth="1"/>
+    <col min="7428" max="7428" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7429" max="7429" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7430" max="7430" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7431" max="7431" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7433" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7434" max="7434" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7435" max="7435" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7436" max="7436" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7437" max="7682" width="8.88671875" style="1"/>
+    <col min="7683" max="7683" width="1.33203125" style="1" customWidth="1"/>
+    <col min="7684" max="7684" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7685" max="7685" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7686" max="7686" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7687" max="7687" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7689" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7690" max="7690" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7691" max="7691" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7692" max="7692" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7693" max="7938" width="8.88671875" style="1"/>
+    <col min="7939" max="7939" width="1.33203125" style="1" customWidth="1"/>
+    <col min="7940" max="7940" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7941" max="7941" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7942" max="7942" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7943" max="7943" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7944" max="7945" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7946" max="7946" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7947" max="7947" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7948" max="7948" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7949" max="8194" width="8.88671875" style="1"/>
+    <col min="8195" max="8195" width="1.33203125" style="1" customWidth="1"/>
+    <col min="8196" max="8196" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8197" max="8197" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8198" max="8198" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8199" max="8199" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8201" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="8202" max="8202" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8203" max="8203" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8204" max="8204" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8205" max="8450" width="8.88671875" style="1"/>
+    <col min="8451" max="8451" width="1.33203125" style="1" customWidth="1"/>
+    <col min="8452" max="8452" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8453" max="8453" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8454" max="8454" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8455" max="8455" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8457" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="8458" max="8458" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8459" max="8459" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8460" max="8460" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8461" max="8706" width="8.88671875" style="1"/>
+    <col min="8707" max="8707" width="1.33203125" style="1" customWidth="1"/>
+    <col min="8708" max="8708" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8709" max="8709" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8710" max="8710" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8711" max="8711" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8713" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="8714" max="8714" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8715" max="8715" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8716" max="8716" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8717" max="8962" width="8.88671875" style="1"/>
+    <col min="8963" max="8963" width="1.33203125" style="1" customWidth="1"/>
+    <col min="8964" max="8964" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8965" max="8965" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8966" max="8966" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8967" max="8967" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8968" max="8969" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="8970" max="8970" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8971" max="8971" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8972" max="8972" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8973" max="9218" width="8.88671875" style="1"/>
+    <col min="9219" max="9219" width="1.33203125" style="1" customWidth="1"/>
+    <col min="9220" max="9220" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9221" max="9221" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9222" max="9222" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9223" max="9223" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9225" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9226" max="9226" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9227" max="9227" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9228" max="9228" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9229" max="9474" width="8.88671875" style="1"/>
+    <col min="9475" max="9475" width="1.33203125" style="1" customWidth="1"/>
+    <col min="9476" max="9476" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9477" max="9477" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9478" max="9478" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9479" max="9479" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9481" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9482" max="9482" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9483" max="9483" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9484" max="9484" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9485" max="9730" width="8.88671875" style="1"/>
+    <col min="9731" max="9731" width="1.33203125" style="1" customWidth="1"/>
+    <col min="9732" max="9732" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9733" max="9733" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9734" max="9734" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9735" max="9735" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9737" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9738" max="9738" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9739" max="9739" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9740" max="9740" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9741" max="9986" width="8.88671875" style="1"/>
+    <col min="9987" max="9987" width="1.33203125" style="1" customWidth="1"/>
+    <col min="9988" max="9988" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9989" max="9989" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9990" max="9990" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9991" max="9991" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9992" max="9993" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9994" max="9994" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9995" max="9995" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9996" max="9996" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9997" max="10242" width="8.88671875" style="1"/>
+    <col min="10243" max="10243" width="1.33203125" style="1" customWidth="1"/>
+    <col min="10244" max="10244" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10245" max="10245" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10246" max="10246" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="10247" max="10247" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10249" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="10250" max="10250" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10251" max="10251" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10252" max="10252" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10253" max="10498" width="8.88671875" style="1"/>
+    <col min="10499" max="10499" width="1.33203125" style="1" customWidth="1"/>
+    <col min="10500" max="10500" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10501" max="10501" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10502" max="10502" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="10503" max="10503" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10505" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="10506" max="10506" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10507" max="10507" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10508" max="10508" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10509" max="10754" width="8.88671875" style="1"/>
+    <col min="10755" max="10755" width="1.33203125" style="1" customWidth="1"/>
+    <col min="10756" max="10756" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10757" max="10757" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10758" max="10758" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="10759" max="10759" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10760" max="10761" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="10762" max="10762" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10763" max="10763" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10764" max="10764" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10765" max="11010" width="8.88671875" style="1"/>
+    <col min="11011" max="11011" width="1.33203125" style="1" customWidth="1"/>
+    <col min="11012" max="11012" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11013" max="11013" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11014" max="11014" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11015" max="11015" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11017" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="11018" max="11018" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11019" max="11019" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11020" max="11020" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11021" max="11266" width="8.88671875" style="1"/>
+    <col min="11267" max="11267" width="1.33203125" style="1" customWidth="1"/>
+    <col min="11268" max="11268" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11269" max="11269" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11270" max="11270" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11271" max="11271" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11273" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="11274" max="11274" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11275" max="11275" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11276" max="11276" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11277" max="11522" width="8.88671875" style="1"/>
+    <col min="11523" max="11523" width="1.33203125" style="1" customWidth="1"/>
+    <col min="11524" max="11524" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11525" max="11525" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11526" max="11526" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11527" max="11527" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11529" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="11530" max="11530" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11531" max="11531" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11532" max="11532" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11533" max="11778" width="8.88671875" style="1"/>
+    <col min="11779" max="11779" width="1.33203125" style="1" customWidth="1"/>
+    <col min="11780" max="11780" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11781" max="11781" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11782" max="11782" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11783" max="11783" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11784" max="11785" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="11786" max="11786" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11787" max="11787" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11788" max="11788" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11789" max="12034" width="8.88671875" style="1"/>
+    <col min="12035" max="12035" width="1.33203125" style="1" customWidth="1"/>
+    <col min="12036" max="12036" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12037" max="12037" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12038" max="12038" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12039" max="12039" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12041" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="12042" max="12042" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12043" max="12043" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12044" max="12044" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12045" max="12290" width="8.88671875" style="1"/>
+    <col min="12291" max="12291" width="1.33203125" style="1" customWidth="1"/>
+    <col min="12292" max="12292" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12293" max="12293" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12294" max="12294" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12295" max="12295" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12297" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="12298" max="12298" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12299" max="12299" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12300" max="12300" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12301" max="12546" width="8.88671875" style="1"/>
+    <col min="12547" max="12547" width="1.33203125" style="1" customWidth="1"/>
+    <col min="12548" max="12548" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12549" max="12549" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12550" max="12550" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12551" max="12551" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12553" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="12554" max="12554" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12555" max="12555" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12556" max="12556" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12557" max="12802" width="8.88671875" style="1"/>
+    <col min="12803" max="12803" width="1.33203125" style="1" customWidth="1"/>
+    <col min="12804" max="12804" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12805" max="12805" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12806" max="12806" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12807" max="12807" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12808" max="12809" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="12810" max="12810" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12811" max="12811" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12812" max="12812" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12813" max="13058" width="8.88671875" style="1"/>
+    <col min="13059" max="13059" width="1.33203125" style="1" customWidth="1"/>
+    <col min="13060" max="13060" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13061" max="13061" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13062" max="13062" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13063" max="13063" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13065" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="13066" max="13066" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13067" max="13067" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13068" max="13068" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13069" max="13314" width="8.88671875" style="1"/>
+    <col min="13315" max="13315" width="1.33203125" style="1" customWidth="1"/>
+    <col min="13316" max="13316" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13317" max="13317" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13318" max="13318" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13319" max="13319" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13321" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="13322" max="13322" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13323" max="13323" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13324" max="13324" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13325" max="13570" width="8.88671875" style="1"/>
+    <col min="13571" max="13571" width="1.33203125" style="1" customWidth="1"/>
+    <col min="13572" max="13572" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13573" max="13573" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13574" max="13574" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13575" max="13575" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13577" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="13578" max="13578" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13579" max="13579" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13580" max="13580" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13581" max="13826" width="8.88671875" style="1"/>
+    <col min="13827" max="13827" width="1.33203125" style="1" customWidth="1"/>
+    <col min="13828" max="13828" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13829" max="13829" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13830" max="13830" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13831" max="13831" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13832" max="13833" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="13834" max="13834" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13835" max="13835" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13836" max="13836" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13837" max="14082" width="8.88671875" style="1"/>
+    <col min="14083" max="14083" width="1.33203125" style="1" customWidth="1"/>
+    <col min="14084" max="14084" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14085" max="14085" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14086" max="14086" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14087" max="14087" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14089" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="14090" max="14090" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14091" max="14091" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14092" max="14092" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14093" max="14338" width="8.88671875" style="1"/>
+    <col min="14339" max="14339" width="1.33203125" style="1" customWidth="1"/>
+    <col min="14340" max="14340" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14341" max="14341" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14342" max="14342" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14343" max="14343" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14345" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="14346" max="14346" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14347" max="14347" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14348" max="14348" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14349" max="14594" width="8.88671875" style="1"/>
+    <col min="14595" max="14595" width="1.33203125" style="1" customWidth="1"/>
+    <col min="14596" max="14596" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14597" max="14597" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14598" max="14598" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14599" max="14599" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14601" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="14602" max="14602" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14603" max="14603" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14604" max="14604" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14605" max="14850" width="8.88671875" style="1"/>
+    <col min="14851" max="14851" width="1.33203125" style="1" customWidth="1"/>
+    <col min="14852" max="14852" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14853" max="14853" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14854" max="14854" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14855" max="14855" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14856" max="14857" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="14858" max="14858" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14859" max="14859" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14860" max="14860" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14861" max="15106" width="8.88671875" style="1"/>
+    <col min="15107" max="15107" width="1.33203125" style="1" customWidth="1"/>
+    <col min="15108" max="15108" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15109" max="15109" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15110" max="15110" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="15111" max="15111" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15113" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="15114" max="15114" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15115" max="15115" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15116" max="15116" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15117" max="15362" width="8.88671875" style="1"/>
+    <col min="15363" max="15363" width="1.33203125" style="1" customWidth="1"/>
+    <col min="15364" max="15364" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15365" max="15365" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15366" max="15366" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="15367" max="15367" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15369" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="15370" max="15370" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15371" max="15371" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15372" max="15372" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15373" max="15618" width="8.88671875" style="1"/>
+    <col min="15619" max="15619" width="1.33203125" style="1" customWidth="1"/>
+    <col min="15620" max="15620" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15621" max="15621" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15622" max="15622" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="15623" max="15623" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15625" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="15626" max="15626" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15627" max="15627" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15628" max="15628" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15629" max="15874" width="8.88671875" style="1"/>
+    <col min="15875" max="15875" width="1.33203125" style="1" customWidth="1"/>
+    <col min="15876" max="15876" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15877" max="15877" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15878" max="15878" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="15879" max="15879" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15880" max="15881" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="15882" max="15882" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15883" max="15883" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15884" max="15884" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15885" max="16130" width="8.88671875" style="1"/>
+    <col min="16131" max="16131" width="1.33203125" style="1" customWidth="1"/>
+    <col min="16132" max="16132" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16133" max="16133" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16134" max="16134" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="16135" max="16135" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16137" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="16138" max="16138" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16139" max="16139" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16140" max="16140" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16141" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="28"/>
+      <c r="J1" s="12">
+        <v>44123</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="29"/>
+    </row>
+    <row r="2" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="30"/>
+      <c r="J2" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="31"/>
+      <c r="L2" s="32"/>
+    </row>
+    <row r="3" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="25"/>
+    </row>
+    <row r="4" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="9">
+        <v>2</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="23" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="9">
+        <v>3</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="23"/>
+    </row>
+    <row r="8" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="9">
+        <v>4</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="23"/>
+    </row>
+    <row r="9" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="9">
+        <v>5</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="23"/>
+    </row>
+    <row r="10" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="9">
+        <v>6</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="23"/>
+    </row>
+    <row r="11" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="9">
+        <v>7</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="13"/>
+    </row>
+    <row r="12" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="9">
+        <v>8</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="23"/>
+    </row>
+    <row r="13" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="9">
+        <v>9</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="23"/>
+    </row>
+    <row r="14" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="9">
+        <v>10</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="23"/>
+    </row>
+    <row r="15" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="9">
+        <v>11</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="23"/>
+    </row>
+    <row r="16" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="9">
+        <v>12</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="23"/>
+    </row>
+    <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="9">
+        <v>13</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="23"/>
+    </row>
+    <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="9">
+        <v>14</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="23"/>
+    </row>
+    <row r="19" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="9">
+        <v>15</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="18"/>
+    </row>
+    <row r="20" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="11">
+        <v>16</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="D1:G2"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="C3:L3"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
 </file>
--- a/dripbagTable.xlsx
+++ b/dripbagTable.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizwork\workspace\Team_DoubleJ_k\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkSpace\Java\Spring\Team_DoubleJ_k\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="드립백 사용자정보 테이블 명세" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="130">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -166,379 +166,387 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>문자열(225)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR2(225)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(1300)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR2(1300)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Column</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR2(30)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR2(100)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>날짜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(100)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구글트랜드 댓글</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(20)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(30)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR2(20)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR2(100)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>권한</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_roll</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_password</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_email</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가입날짜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일련번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRIMARY KEY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성시각</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조회수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일련번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일련번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRIMARY KEY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR2(1300)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(225)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_seq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성날짜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_gcoment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_user</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gt_seq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gt_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gt_title</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gt_img</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_seq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_title</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_img</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_content</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시날짜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_nRanking</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_gRanking</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일련번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gc_email</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gc_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gc_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gc_title</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gc_explan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gc_score</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gc_click</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>g_seq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gc_seq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>트랜드 검색어와 JOIN 하기위한 SEQ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구글 댓글 고유 테이블 SEQ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL UNIQUE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뉴스랭킹 댓글</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_nComent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>News 랭킹 댓글 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Google 랭킹 댓글 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>크롤링해온 뉴스 정보를 저장할 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>크롤링해온 구글 트랜드 정보를 저장할 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nc_seq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nc_email</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nc_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nc_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nc_title</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nc_explan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nc_score</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nc_click</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뉴스 댓글 고유 테이블 SEQ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>UNIQUE NOT NULL</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>문자열(225)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nVARCHAR2(225)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열(1300)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nVARCHAR2(1300)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Column</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nVARCHAR2(30)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nVARCHAR2(100)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>날짜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열(10)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열(100)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>구글트랜드 댓글</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>설명내용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열(20)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열(30)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nVARCHAR2(20)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>NOT NULL</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>nVARCHAR2(100)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>권한</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>숫자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>d_roll</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>d_password</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>d_email</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUMBER</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가입날짜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열(10)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>d_date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(10)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>일련번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUMBER</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>숫자형</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRIMARY KEY</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>좋아요</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>작성시각</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(10)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>조회수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>작성자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>일련번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(10)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOT NULL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열(10)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>일련번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>숫자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUMBER</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRIMARY KEY</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nVARCHAR2(1300)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이미지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열(225)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>d_seq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>작성날짜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_gcoment</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_user</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gt_seq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gt_date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gt_title</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gt_img</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>n_seq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>n_date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>n_title</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>n_img</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>n_content</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시날짜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_nRanking</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_gRanking</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>일련번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>숫자형</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gc_email</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gc_date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gc_time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gc_title</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gc_explan</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gc_score</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gc_click</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_seq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gc_seq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>트랜드 검색어와 JOIN 하기위한 SEQ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUMBER</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>구글 댓글 고유 테이블 SEQ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOT NULL UNIQUE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>뉴스랭킹 댓글</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_nComent</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>News 랭킹 댓글 테이블</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Google 랭킹 댓글 테이블</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>크롤링해온 뉴스 정보를 저장할 테이블</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>크롤링해온 구글 트랜드 정보를 저장할 테이블</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nc_seq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nc_email</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nc_date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nc_time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nc_title</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nc_explan</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nc_score</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nc_click</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>뉴스 댓글 고유 테이블 SEQ</t>
+    <t>DEFAULT 1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1254,8 +1262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L20"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:L3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1935,7 +1943,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D2" s="27"/>
       <c r="E2" s="27"/>
@@ -2014,7 +2022,7 @@
         <v>21</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>22</v>
@@ -2036,16 +2044,16 @@
         <v>28</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>34</v>
+        <v>127</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
@@ -2061,16 +2069,16 @@
         <v>27</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>33</v>
+        <v>128</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
@@ -2083,19 +2091,19 @@
         <v>4</v>
       </c>
       <c r="C8" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>54</v>
-      </c>
       <c r="F8" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>50</v>
+        <v>129</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
@@ -2108,19 +2116,19 @@
         <v>5</v>
       </c>
       <c r="C9" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="F9" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="G9" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
@@ -2993,7 +3001,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D2" s="27"/>
       <c r="E2" s="27"/>
@@ -3014,7 +3022,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D3" s="24"/>
       <c r="E3" s="24"/>
@@ -3066,13 +3074,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>22</v>
@@ -3091,19 +3099,19 @@
         <v>2</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="13"/>
@@ -3119,13 +3127,13 @@
         <v>30</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>33</v>
@@ -3141,16 +3149,16 @@
         <v>4</v>
       </c>
       <c r="C8" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="E8" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
@@ -4040,7 +4048,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D2" s="27"/>
       <c r="E2" s="27"/>
@@ -4061,7 +4069,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D3" s="24"/>
       <c r="E3" s="24"/>
@@ -4084,7 +4092,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>17</v>
@@ -4113,20 +4121,20 @@
         <v>1</v>
       </c>
       <c r="C5" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -4138,13 +4146,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>23</v>
@@ -4169,7 +4177,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>23</v>
@@ -4191,13 +4199,13 @@
         <v>31</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="13"/>
@@ -4214,13 +4222,13 @@
         <v>32</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="13"/>
@@ -5069,7 +5077,7 @@
         <v>9</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D1" s="26" t="s">
         <v>14</v>
@@ -5094,7 +5102,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D2" s="27"/>
       <c r="E2" s="27"/>
@@ -5115,7 +5123,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D3" s="24"/>
       <c r="E3" s="24"/>
@@ -5167,26 +5175,26 @@
         <v>1</v>
       </c>
       <c r="C5" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -5194,25 +5202,25 @@
         <v>2</v>
       </c>
       <c r="C6" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="20" t="s">
-        <v>99</v>
-      </c>
       <c r="E6" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
       <c r="L6" s="22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -5220,19 +5228,19 @@
         <v>3</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
@@ -5245,19 +5253,19 @@
         <v>4</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>23</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
@@ -5270,19 +5278,19 @@
         <v>5</v>
       </c>
       <c r="C9" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="G9" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
@@ -5301,7 +5309,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>23</v>
@@ -5320,16 +5328,16 @@
         <v>7</v>
       </c>
       <c r="C11" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="E11" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
@@ -5348,16 +5356,16 @@
         <v>8</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
@@ -5371,16 +5379,16 @@
         <v>9</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
@@ -5514,7 +5522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -6169,7 +6177,7 @@
         <v>9</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D1" s="26" t="s">
         <v>14</v>
@@ -6194,7 +6202,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D2" s="27"/>
       <c r="E2" s="27"/>
@@ -6215,7 +6223,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D3" s="24"/>
       <c r="E3" s="24"/>
@@ -6267,26 +6275,26 @@
         <v>1</v>
       </c>
       <c r="C5" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -6294,25 +6302,25 @@
         <v>2</v>
       </c>
       <c r="C6" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="20" t="s">
-        <v>99</v>
-      </c>
       <c r="E6" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
       <c r="L6" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -6320,19 +6328,19 @@
         <v>3</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
@@ -6345,19 +6353,19 @@
         <v>4</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>23</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
@@ -6370,19 +6378,19 @@
         <v>5</v>
       </c>
       <c r="C9" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="G9" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
@@ -6401,7 +6409,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>23</v>
@@ -6420,16 +6428,16 @@
         <v>7</v>
       </c>
       <c r="C11" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="E11" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
@@ -6448,16 +6456,16 @@
         <v>8</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
@@ -6471,16 +6479,16 @@
         <v>9</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
@@ -6596,12 +6604,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C3:L3"/>
     <mergeCell ref="D1:G2"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="C3:L3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/dripbagTable.xlsx
+++ b/dripbagTable.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkSpace\Java\Spring\Team_DoubleJ_k\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkSpace\Java\Team_DoubleJ_k\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="드립백 사용자정보 테이블 명세" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="119">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -242,18 +242,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>d_roll</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>d_password</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>d_email</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>NUMBER</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -266,10 +254,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>d_date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>VARCHAR2(10)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -354,10 +338,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>d_seq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>작성날짜</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -370,42 +350,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>gt_seq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gt_date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gt_title</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gt_img</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>n_seq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>n_date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>n_title</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>n_img</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>n_content</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>게시날짜</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -426,42 +370,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>gc_email</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gc_date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gc_time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gc_title</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gc_explan</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gc_score</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gc_click</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_seq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gc_seq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>트랜드 검색어와 JOIN 하기위한 SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -502,38 +410,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>nc_seq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nc_email</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nc_date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nc_time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nc_title</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nc_explan</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nc_score</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nc_click</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>뉴스 댓글 고유 테이블 SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -547,6 +423,86 @@
   </si>
   <si>
     <t>DEFAULT 1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>seq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>roll</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>img</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>img</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>seqcm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>explan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>score</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>click</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>seqnc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>explan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>score</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1262,8 +1218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1943,7 +1899,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D2" s="27"/>
       <c r="E2" s="27"/>
@@ -2022,7 +1978,7 @@
         <v>21</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>22</v>
@@ -2047,13 +2003,13 @@
         <v>43</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>40</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
@@ -2072,13 +2028,13 @@
         <v>47</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>54</v>
+        <v>101</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>39</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
@@ -2097,13 +2053,13 @@
         <v>52</v>
       </c>
       <c r="E8" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="G8" s="3" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
@@ -2116,16 +2072,16 @@
         <v>5</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G9" s="13" t="s">
         <v>49</v>
@@ -2322,7 +2278,7 @@
   <dimension ref="B1:L20"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:L3"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3001,7 +2957,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="D2" s="27"/>
       <c r="E2" s="27"/>
@@ -3022,7 +2978,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="D3" s="24"/>
       <c r="E3" s="24"/>
@@ -3074,13 +3030,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>22</v>
@@ -3102,16 +3058,16 @@
         <v>41</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="13"/>
@@ -3130,7 +3086,7 @@
         <v>34</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>35</v>
@@ -3149,13 +3105,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>35</v>
@@ -3368,7 +3324,7 @@
   <dimension ref="B1:L20"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4048,7 +4004,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D2" s="27"/>
       <c r="E2" s="27"/>
@@ -4069,7 +4025,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="D3" s="24"/>
       <c r="E3" s="24"/>
@@ -4121,20 +4077,20 @@
         <v>1</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -4146,13 +4102,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>23</v>
@@ -4177,7 +4133,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>23</v>
@@ -4202,10 +4158,10 @@
         <v>36</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="13"/>
@@ -4225,7 +4181,7 @@
         <v>36</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>37</v>
@@ -4423,7 +4379,7 @@
   <dimension ref="B1:Q20"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5102,7 +5058,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D2" s="27"/>
       <c r="E2" s="27"/>
@@ -5123,7 +5079,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="D3" s="24"/>
       <c r="E3" s="24"/>
@@ -5175,26 +5131,26 @@
         <v>1</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="17" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -5202,25 +5158,25 @@
         <v>2</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
       <c r="L6" s="22" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -5228,13 +5184,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>50</v>
@@ -5253,13 +5209,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>23</v>
@@ -5278,16 +5234,16 @@
         <v>5</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G9" s="13" t="s">
         <v>49</v>
@@ -5309,7 +5265,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>23</v>
@@ -5334,7 +5290,7 @@
         <v>46</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>48</v>
@@ -5356,16 +5312,16 @@
         <v>8</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
@@ -5379,16 +5335,16 @@
         <v>9</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
@@ -5522,8 +5478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q20"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6177,7 +6133,7 @@
         <v>9</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="D1" s="26" t="s">
         <v>14</v>
@@ -6202,7 +6158,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="D2" s="27"/>
       <c r="E2" s="27"/>
@@ -6223,7 +6179,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="D3" s="24"/>
       <c r="E3" s="24"/>
@@ -6275,26 +6231,26 @@
         <v>1</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="17" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -6302,25 +6258,25 @@
         <v>2</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
       <c r="L6" s="23" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -6328,13 +6284,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>50</v>
@@ -6353,13 +6309,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>23</v>
@@ -6378,16 +6334,16 @@
         <v>5</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G9" s="13" t="s">
         <v>49</v>
@@ -6409,7 +6365,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>23</v>
@@ -6434,7 +6390,7 @@
         <v>46</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>48</v>
@@ -6456,16 +6412,16 @@
         <v>8</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
@@ -6479,16 +6435,16 @@
         <v>9</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>

--- a/dripbagTable.xlsx
+++ b/dripbagTable.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="드립백 사용자정보 테이블 명세" sheetId="3" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="드립백 뉴스 테이블 명세" sheetId="5" r:id="rId3"/>
     <sheet name="구글댓글 테이블 명세" sheetId="8" r:id="rId4"/>
     <sheet name="뉴스댓글 테이블 명세" sheetId="9" r:id="rId5"/>
+    <sheet name="공지사항 테이블 명세" sheetId="11" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="118">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -466,14 +467,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>seqcm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>email</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>time</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -482,27 +475,31 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>explan</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>score</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>click</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>seqnc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>explan</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>score</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>writer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>like</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>views</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>seqC</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -774,7 +771,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -836,6 +833,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1876,23 +1876,23 @@
       <c r="C1" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="28" t="s">
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="28"/>
+      <c r="I1" s="29"/>
       <c r="J1" s="12">
         <v>44109</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="29"/>
+      <c r="L1" s="30"/>
     </row>
     <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="15" t="s">
@@ -1901,36 +1901,36 @@
       <c r="C2" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="30" t="s">
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="30"/>
+      <c r="I2" s="31"/>
       <c r="J2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="31"/>
-      <c r="L2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="33"/>
     </row>
     <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="26"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
@@ -2934,23 +2934,23 @@
       <c r="C1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="28" t="s">
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="28"/>
+      <c r="I1" s="29"/>
       <c r="J1" s="12">
         <v>44109</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="29"/>
+      <c r="L1" s="30"/>
     </row>
     <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="15" t="s">
@@ -2959,36 +2959,36 @@
       <c r="C2" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="30" t="s">
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="30"/>
+      <c r="I2" s="31"/>
       <c r="J2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="31"/>
-      <c r="L2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="33"/>
     </row>
     <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="26"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
@@ -3981,23 +3981,23 @@
       <c r="C1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="28" t="s">
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="28"/>
+      <c r="I1" s="29"/>
       <c r="J1" s="12">
         <v>44109</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="29"/>
+      <c r="L1" s="30"/>
     </row>
     <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="15" t="s">
@@ -4006,36 +4006,36 @@
       <c r="C2" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="30" t="s">
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="30"/>
+      <c r="I2" s="31"/>
       <c r="J2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="31"/>
-      <c r="L2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="33"/>
     </row>
     <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="26"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
@@ -4378,8 +4378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q20"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5035,23 +5035,23 @@
       <c r="C1" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="28" t="s">
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="28"/>
+      <c r="I1" s="29"/>
       <c r="J1" s="12">
         <v>44123</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="29"/>
+      <c r="L1" s="30"/>
     </row>
     <row r="2" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="15" t="s">
@@ -5060,36 +5060,36 @@
       <c r="C2" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="30" t="s">
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="30"/>
+      <c r="I2" s="31"/>
       <c r="J2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="31"/>
-      <c r="L2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="33"/>
     </row>
     <row r="3" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="26"/>
     </row>
     <row r="4" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
@@ -5164,7 +5164,7 @@
         <v>84</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="F6" s="20" t="s">
         <v>86</v>
@@ -5190,7 +5190,7 @@
         <v>43</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>50</v>
@@ -5240,7 +5240,7 @@
         <v>42</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>63</v>
@@ -5265,7 +5265,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>23</v>
@@ -5290,7 +5290,7 @@
         <v>46</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>48</v>
@@ -5318,7 +5318,7 @@
         <v>59</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>58</v>
@@ -5478,8 +5478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6135,23 +6135,23 @@
       <c r="C1" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="28" t="s">
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="28"/>
+      <c r="I1" s="29"/>
       <c r="J1" s="12">
         <v>44123</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="29"/>
+      <c r="L1" s="30"/>
     </row>
     <row r="2" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="15" t="s">
@@ -6160,36 +6160,36 @@
       <c r="C2" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="30" t="s">
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="30"/>
+      <c r="I2" s="31"/>
       <c r="J2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="31"/>
-      <c r="L2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="33"/>
     </row>
     <row r="3" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="26"/>
     </row>
     <row r="4" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
@@ -6264,7 +6264,7 @@
         <v>84</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F6" s="20" t="s">
         <v>86</v>
@@ -6290,7 +6290,7 @@
         <v>43</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>50</v>
@@ -6340,7 +6340,7 @@
         <v>42</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>63</v>
@@ -6365,7 +6365,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>23</v>
@@ -6390,7 +6390,7 @@
         <v>46</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>48</v>
@@ -6418,7 +6418,7 @@
         <v>59</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>58</v>
@@ -6527,6 +6527,1087 @@
       <c r="J18" s="13"/>
       <c r="K18" s="13"/>
       <c r="L18" s="23"/>
+    </row>
+    <row r="19" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="9">
+        <v>15</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="18"/>
+    </row>
+    <row r="20" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="11">
+        <v>16</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="D1:G2"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="K2:L2"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:Q20"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="258" width="8.88671875" style="1"/>
+    <col min="259" max="259" width="1.33203125" style="1" customWidth="1"/>
+    <col min="260" max="260" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="264" max="265" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="267" max="267" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="268" max="268" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="269" max="514" width="8.88671875" style="1"/>
+    <col min="515" max="515" width="1.33203125" style="1" customWidth="1"/>
+    <col min="516" max="516" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="517" max="517" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="518" max="518" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="519" max="519" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="520" max="521" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="522" max="522" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="523" max="523" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="524" max="524" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="525" max="770" width="8.88671875" style="1"/>
+    <col min="771" max="771" width="1.33203125" style="1" customWidth="1"/>
+    <col min="772" max="772" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="773" max="773" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="774" max="774" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="775" max="775" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="776" max="777" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="778" max="778" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="779" max="779" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="780" max="780" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="781" max="1026" width="8.88671875" style="1"/>
+    <col min="1027" max="1027" width="1.33203125" style="1" customWidth="1"/>
+    <col min="1028" max="1028" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1029" max="1029" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1030" max="1030" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1031" max="1031" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1033" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="1034" max="1034" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1035" max="1035" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1036" max="1036" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1037" max="1282" width="8.88671875" style="1"/>
+    <col min="1283" max="1283" width="1.33203125" style="1" customWidth="1"/>
+    <col min="1284" max="1284" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1285" max="1285" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1286" max="1286" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1287" max="1287" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1289" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="1290" max="1290" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1291" max="1291" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1292" max="1292" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1293" max="1538" width="8.88671875" style="1"/>
+    <col min="1539" max="1539" width="1.33203125" style="1" customWidth="1"/>
+    <col min="1540" max="1540" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1541" max="1541" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1542" max="1542" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1543" max="1543" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1545" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="1546" max="1546" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1547" max="1547" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1548" max="1548" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1549" max="1794" width="8.88671875" style="1"/>
+    <col min="1795" max="1795" width="1.33203125" style="1" customWidth="1"/>
+    <col min="1796" max="1796" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1797" max="1797" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1798" max="1798" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1799" max="1799" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1800" max="1801" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="1802" max="1802" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1803" max="1803" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1804" max="1804" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1805" max="2050" width="8.88671875" style="1"/>
+    <col min="2051" max="2051" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2052" max="2052" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2053" max="2053" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2054" max="2054" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2055" max="2055" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2057" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2058" max="2058" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2059" max="2059" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2060" max="2060" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2061" max="2306" width="8.88671875" style="1"/>
+    <col min="2307" max="2307" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2308" max="2308" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2309" max="2309" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2310" max="2310" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2311" max="2311" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2313" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2314" max="2314" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2315" max="2315" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2316" max="2316" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2317" max="2562" width="8.88671875" style="1"/>
+    <col min="2563" max="2563" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2564" max="2564" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2565" max="2565" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2566" max="2566" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2567" max="2567" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2569" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2570" max="2570" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2571" max="2571" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2572" max="2572" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2573" max="2818" width="8.88671875" style="1"/>
+    <col min="2819" max="2819" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2820" max="2820" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2821" max="2821" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2822" max="2822" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2823" max="2823" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2824" max="2825" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2826" max="2826" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2827" max="2827" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2828" max="2828" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2829" max="3074" width="8.88671875" style="1"/>
+    <col min="3075" max="3075" width="1.33203125" style="1" customWidth="1"/>
+    <col min="3076" max="3076" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3077" max="3077" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3078" max="3078" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3079" max="3079" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3081" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="3082" max="3082" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3083" max="3083" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3084" max="3084" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3085" max="3330" width="8.88671875" style="1"/>
+    <col min="3331" max="3331" width="1.33203125" style="1" customWidth="1"/>
+    <col min="3332" max="3332" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3333" max="3333" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3334" max="3334" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3335" max="3335" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3337" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="3338" max="3338" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3339" max="3339" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3340" max="3340" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3341" max="3586" width="8.88671875" style="1"/>
+    <col min="3587" max="3587" width="1.33203125" style="1" customWidth="1"/>
+    <col min="3588" max="3588" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3589" max="3589" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3590" max="3590" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3591" max="3591" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3593" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="3594" max="3594" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3595" max="3595" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3596" max="3596" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3597" max="3842" width="8.88671875" style="1"/>
+    <col min="3843" max="3843" width="1.33203125" style="1" customWidth="1"/>
+    <col min="3844" max="3844" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3845" max="3845" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3846" max="3846" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3847" max="3847" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3848" max="3849" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="3850" max="3850" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3851" max="3851" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3852" max="3852" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3853" max="4098" width="8.88671875" style="1"/>
+    <col min="4099" max="4099" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4100" max="4100" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4101" max="4101" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4102" max="4102" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4103" max="4103" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4105" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4106" max="4106" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4107" max="4107" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4108" max="4108" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4109" max="4354" width="8.88671875" style="1"/>
+    <col min="4355" max="4355" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4356" max="4356" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4357" max="4357" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4358" max="4358" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4359" max="4359" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4361" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4362" max="4362" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4363" max="4363" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4364" max="4364" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4365" max="4610" width="8.88671875" style="1"/>
+    <col min="4611" max="4611" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4612" max="4612" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4613" max="4613" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4614" max="4614" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4615" max="4615" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4617" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4618" max="4618" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4619" max="4619" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4620" max="4620" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4621" max="4866" width="8.88671875" style="1"/>
+    <col min="4867" max="4867" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4868" max="4868" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4869" max="4869" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4870" max="4870" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4871" max="4871" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4872" max="4873" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4874" max="4874" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4875" max="4875" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4876" max="4876" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4877" max="5122" width="8.88671875" style="1"/>
+    <col min="5123" max="5123" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5124" max="5124" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5125" max="5125" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5126" max="5126" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5127" max="5127" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5129" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5130" max="5130" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5131" max="5131" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5132" max="5132" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5133" max="5378" width="8.88671875" style="1"/>
+    <col min="5379" max="5379" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5380" max="5380" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5381" max="5381" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5382" max="5382" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5383" max="5383" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5385" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5386" max="5386" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5387" max="5387" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5388" max="5388" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5389" max="5634" width="8.88671875" style="1"/>
+    <col min="5635" max="5635" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5636" max="5636" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5637" max="5637" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5638" max="5638" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5639" max="5639" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5641" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5642" max="5642" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5643" max="5643" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5644" max="5644" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5645" max="5890" width="8.88671875" style="1"/>
+    <col min="5891" max="5891" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5892" max="5892" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5893" max="5893" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5894" max="5894" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5895" max="5895" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5896" max="5897" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5898" max="5898" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5899" max="5899" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5900" max="5900" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5901" max="6146" width="8.88671875" style="1"/>
+    <col min="6147" max="6147" width="1.33203125" style="1" customWidth="1"/>
+    <col min="6148" max="6148" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6149" max="6149" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6150" max="6150" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6151" max="6151" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6153" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="6154" max="6154" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6155" max="6155" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6156" max="6156" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6157" max="6402" width="8.88671875" style="1"/>
+    <col min="6403" max="6403" width="1.33203125" style="1" customWidth="1"/>
+    <col min="6404" max="6404" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6405" max="6405" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6406" max="6406" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6407" max="6407" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6409" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="6410" max="6410" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6411" max="6411" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6412" max="6412" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6413" max="6658" width="8.88671875" style="1"/>
+    <col min="6659" max="6659" width="1.33203125" style="1" customWidth="1"/>
+    <col min="6660" max="6660" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6661" max="6661" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6662" max="6662" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6663" max="6663" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6665" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="6666" max="6666" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6667" max="6667" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6668" max="6668" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6669" max="6914" width="8.88671875" style="1"/>
+    <col min="6915" max="6915" width="1.33203125" style="1" customWidth="1"/>
+    <col min="6916" max="6916" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6917" max="6917" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6918" max="6918" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6919" max="6919" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6920" max="6921" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="6922" max="6922" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6923" max="6923" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6924" max="6924" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6925" max="7170" width="8.88671875" style="1"/>
+    <col min="7171" max="7171" width="1.33203125" style="1" customWidth="1"/>
+    <col min="7172" max="7172" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7173" max="7173" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7174" max="7174" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7175" max="7175" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7177" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7178" max="7178" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7179" max="7179" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7180" max="7180" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7181" max="7426" width="8.88671875" style="1"/>
+    <col min="7427" max="7427" width="1.33203125" style="1" customWidth="1"/>
+    <col min="7428" max="7428" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7429" max="7429" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7430" max="7430" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7431" max="7431" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7433" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7434" max="7434" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7435" max="7435" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7436" max="7436" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7437" max="7682" width="8.88671875" style="1"/>
+    <col min="7683" max="7683" width="1.33203125" style="1" customWidth="1"/>
+    <col min="7684" max="7684" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7685" max="7685" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7686" max="7686" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7687" max="7687" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7689" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7690" max="7690" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7691" max="7691" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7692" max="7692" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7693" max="7938" width="8.88671875" style="1"/>
+    <col min="7939" max="7939" width="1.33203125" style="1" customWidth="1"/>
+    <col min="7940" max="7940" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7941" max="7941" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7942" max="7942" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7943" max="7943" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7944" max="7945" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7946" max="7946" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7947" max="7947" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7948" max="7948" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7949" max="8194" width="8.88671875" style="1"/>
+    <col min="8195" max="8195" width="1.33203125" style="1" customWidth="1"/>
+    <col min="8196" max="8196" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8197" max="8197" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8198" max="8198" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8199" max="8199" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8201" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="8202" max="8202" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8203" max="8203" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8204" max="8204" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8205" max="8450" width="8.88671875" style="1"/>
+    <col min="8451" max="8451" width="1.33203125" style="1" customWidth="1"/>
+    <col min="8452" max="8452" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8453" max="8453" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8454" max="8454" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8455" max="8455" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8457" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="8458" max="8458" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8459" max="8459" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8460" max="8460" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8461" max="8706" width="8.88671875" style="1"/>
+    <col min="8707" max="8707" width="1.33203125" style="1" customWidth="1"/>
+    <col min="8708" max="8708" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8709" max="8709" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8710" max="8710" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8711" max="8711" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8713" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="8714" max="8714" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8715" max="8715" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8716" max="8716" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8717" max="8962" width="8.88671875" style="1"/>
+    <col min="8963" max="8963" width="1.33203125" style="1" customWidth="1"/>
+    <col min="8964" max="8964" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8965" max="8965" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8966" max="8966" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8967" max="8967" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8968" max="8969" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="8970" max="8970" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8971" max="8971" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8972" max="8972" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8973" max="9218" width="8.88671875" style="1"/>
+    <col min="9219" max="9219" width="1.33203125" style="1" customWidth="1"/>
+    <col min="9220" max="9220" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9221" max="9221" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9222" max="9222" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9223" max="9223" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9225" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9226" max="9226" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9227" max="9227" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9228" max="9228" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9229" max="9474" width="8.88671875" style="1"/>
+    <col min="9475" max="9475" width="1.33203125" style="1" customWidth="1"/>
+    <col min="9476" max="9476" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9477" max="9477" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9478" max="9478" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9479" max="9479" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9481" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9482" max="9482" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9483" max="9483" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9484" max="9484" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9485" max="9730" width="8.88671875" style="1"/>
+    <col min="9731" max="9731" width="1.33203125" style="1" customWidth="1"/>
+    <col min="9732" max="9732" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9733" max="9733" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9734" max="9734" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9735" max="9735" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9737" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9738" max="9738" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9739" max="9739" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9740" max="9740" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9741" max="9986" width="8.88671875" style="1"/>
+    <col min="9987" max="9987" width="1.33203125" style="1" customWidth="1"/>
+    <col min="9988" max="9988" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9989" max="9989" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9990" max="9990" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9991" max="9991" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9992" max="9993" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9994" max="9994" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9995" max="9995" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9996" max="9996" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9997" max="10242" width="8.88671875" style="1"/>
+    <col min="10243" max="10243" width="1.33203125" style="1" customWidth="1"/>
+    <col min="10244" max="10244" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10245" max="10245" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10246" max="10246" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="10247" max="10247" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10249" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="10250" max="10250" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10251" max="10251" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10252" max="10252" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10253" max="10498" width="8.88671875" style="1"/>
+    <col min="10499" max="10499" width="1.33203125" style="1" customWidth="1"/>
+    <col min="10500" max="10500" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10501" max="10501" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10502" max="10502" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="10503" max="10503" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10505" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="10506" max="10506" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10507" max="10507" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10508" max="10508" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10509" max="10754" width="8.88671875" style="1"/>
+    <col min="10755" max="10755" width="1.33203125" style="1" customWidth="1"/>
+    <col min="10756" max="10756" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10757" max="10757" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10758" max="10758" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="10759" max="10759" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10760" max="10761" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="10762" max="10762" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10763" max="10763" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10764" max="10764" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10765" max="11010" width="8.88671875" style="1"/>
+    <col min="11011" max="11011" width="1.33203125" style="1" customWidth="1"/>
+    <col min="11012" max="11012" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11013" max="11013" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11014" max="11014" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11015" max="11015" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11017" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="11018" max="11018" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11019" max="11019" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11020" max="11020" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11021" max="11266" width="8.88671875" style="1"/>
+    <col min="11267" max="11267" width="1.33203125" style="1" customWidth="1"/>
+    <col min="11268" max="11268" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11269" max="11269" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11270" max="11270" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11271" max="11271" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11273" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="11274" max="11274" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11275" max="11275" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11276" max="11276" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11277" max="11522" width="8.88671875" style="1"/>
+    <col min="11523" max="11523" width="1.33203125" style="1" customWidth="1"/>
+    <col min="11524" max="11524" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11525" max="11525" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11526" max="11526" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11527" max="11527" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11529" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="11530" max="11530" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11531" max="11531" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11532" max="11532" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11533" max="11778" width="8.88671875" style="1"/>
+    <col min="11779" max="11779" width="1.33203125" style="1" customWidth="1"/>
+    <col min="11780" max="11780" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11781" max="11781" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11782" max="11782" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11783" max="11783" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11784" max="11785" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="11786" max="11786" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11787" max="11787" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11788" max="11788" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11789" max="12034" width="8.88671875" style="1"/>
+    <col min="12035" max="12035" width="1.33203125" style="1" customWidth="1"/>
+    <col min="12036" max="12036" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12037" max="12037" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12038" max="12038" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12039" max="12039" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12041" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="12042" max="12042" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12043" max="12043" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12044" max="12044" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12045" max="12290" width="8.88671875" style="1"/>
+    <col min="12291" max="12291" width="1.33203125" style="1" customWidth="1"/>
+    <col min="12292" max="12292" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12293" max="12293" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12294" max="12294" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12295" max="12295" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12297" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="12298" max="12298" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12299" max="12299" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12300" max="12300" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12301" max="12546" width="8.88671875" style="1"/>
+    <col min="12547" max="12547" width="1.33203125" style="1" customWidth="1"/>
+    <col min="12548" max="12548" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12549" max="12549" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12550" max="12550" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12551" max="12551" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12553" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="12554" max="12554" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12555" max="12555" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12556" max="12556" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12557" max="12802" width="8.88671875" style="1"/>
+    <col min="12803" max="12803" width="1.33203125" style="1" customWidth="1"/>
+    <col min="12804" max="12804" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12805" max="12805" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12806" max="12806" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12807" max="12807" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12808" max="12809" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="12810" max="12810" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12811" max="12811" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12812" max="12812" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12813" max="13058" width="8.88671875" style="1"/>
+    <col min="13059" max="13059" width="1.33203125" style="1" customWidth="1"/>
+    <col min="13060" max="13060" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13061" max="13061" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13062" max="13062" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13063" max="13063" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13065" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="13066" max="13066" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13067" max="13067" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13068" max="13068" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13069" max="13314" width="8.88671875" style="1"/>
+    <col min="13315" max="13315" width="1.33203125" style="1" customWidth="1"/>
+    <col min="13316" max="13316" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13317" max="13317" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13318" max="13318" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13319" max="13319" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13321" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="13322" max="13322" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13323" max="13323" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13324" max="13324" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13325" max="13570" width="8.88671875" style="1"/>
+    <col min="13571" max="13571" width="1.33203125" style="1" customWidth="1"/>
+    <col min="13572" max="13572" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13573" max="13573" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13574" max="13574" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13575" max="13575" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13577" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="13578" max="13578" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13579" max="13579" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13580" max="13580" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13581" max="13826" width="8.88671875" style="1"/>
+    <col min="13827" max="13827" width="1.33203125" style="1" customWidth="1"/>
+    <col min="13828" max="13828" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13829" max="13829" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13830" max="13830" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13831" max="13831" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13832" max="13833" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="13834" max="13834" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13835" max="13835" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13836" max="13836" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13837" max="14082" width="8.88671875" style="1"/>
+    <col min="14083" max="14083" width="1.33203125" style="1" customWidth="1"/>
+    <col min="14084" max="14084" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14085" max="14085" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14086" max="14086" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14087" max="14087" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14089" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="14090" max="14090" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14091" max="14091" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14092" max="14092" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14093" max="14338" width="8.88671875" style="1"/>
+    <col min="14339" max="14339" width="1.33203125" style="1" customWidth="1"/>
+    <col min="14340" max="14340" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14341" max="14341" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14342" max="14342" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14343" max="14343" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14345" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="14346" max="14346" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14347" max="14347" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14348" max="14348" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14349" max="14594" width="8.88671875" style="1"/>
+    <col min="14595" max="14595" width="1.33203125" style="1" customWidth="1"/>
+    <col min="14596" max="14596" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14597" max="14597" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14598" max="14598" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14599" max="14599" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14601" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="14602" max="14602" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14603" max="14603" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14604" max="14604" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14605" max="14850" width="8.88671875" style="1"/>
+    <col min="14851" max="14851" width="1.33203125" style="1" customWidth="1"/>
+    <col min="14852" max="14852" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14853" max="14853" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14854" max="14854" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14855" max="14855" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14856" max="14857" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="14858" max="14858" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14859" max="14859" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14860" max="14860" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14861" max="15106" width="8.88671875" style="1"/>
+    <col min="15107" max="15107" width="1.33203125" style="1" customWidth="1"/>
+    <col min="15108" max="15108" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15109" max="15109" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15110" max="15110" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="15111" max="15111" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15113" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="15114" max="15114" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15115" max="15115" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15116" max="15116" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15117" max="15362" width="8.88671875" style="1"/>
+    <col min="15363" max="15363" width="1.33203125" style="1" customWidth="1"/>
+    <col min="15364" max="15364" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15365" max="15365" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15366" max="15366" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="15367" max="15367" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15369" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="15370" max="15370" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15371" max="15371" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15372" max="15372" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15373" max="15618" width="8.88671875" style="1"/>
+    <col min="15619" max="15619" width="1.33203125" style="1" customWidth="1"/>
+    <col min="15620" max="15620" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15621" max="15621" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15622" max="15622" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="15623" max="15623" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15625" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="15626" max="15626" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15627" max="15627" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15628" max="15628" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15629" max="15874" width="8.88671875" style="1"/>
+    <col min="15875" max="15875" width="1.33203125" style="1" customWidth="1"/>
+    <col min="15876" max="15876" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15877" max="15877" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15878" max="15878" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="15879" max="15879" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15880" max="15881" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="15882" max="15882" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15883" max="15883" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15884" max="15884" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15885" max="16130" width="8.88671875" style="1"/>
+    <col min="16131" max="16131" width="1.33203125" style="1" customWidth="1"/>
+    <col min="16132" max="16132" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16133" max="16133" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16134" max="16134" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="16135" max="16135" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16137" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="16138" max="16138" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16139" max="16139" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16140" max="16140" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16141" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="29"/>
+      <c r="J1" s="12">
+        <v>44123</v>
+      </c>
+      <c r="K1" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="30"/>
+    </row>
+    <row r="2" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="31"/>
+      <c r="J2" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="32"/>
+      <c r="L2" s="33"/>
+    </row>
+    <row r="3" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="26"/>
+    </row>
+    <row r="4" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="17"/>
+    </row>
+    <row r="6" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="9">
+        <v>2</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="24"/>
+    </row>
+    <row r="7" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="9">
+        <v>3</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="24"/>
+    </row>
+    <row r="8" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="9">
+        <v>4</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="24"/>
+    </row>
+    <row r="9" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="9">
+        <v>5</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="24"/>
+    </row>
+    <row r="10" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="9">
+        <v>6</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="24"/>
+    </row>
+    <row r="11" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="9">
+        <v>7</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="13"/>
+    </row>
+    <row r="12" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="9">
+        <v>8</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="24"/>
+    </row>
+    <row r="13" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="9">
+        <v>9</v>
+      </c>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="24"/>
+    </row>
+    <row r="14" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="9">
+        <v>10</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="24"/>
+    </row>
+    <row r="15" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="9">
+        <v>11</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="24"/>
+    </row>
+    <row r="16" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="9">
+        <v>12</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="24"/>
+    </row>
+    <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="9">
+        <v>13</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="24"/>
+    </row>
+    <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="9">
+        <v>14</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="24"/>
     </row>
     <row r="19" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="9">

--- a/dripbagTable.xlsx
+++ b/dripbagTable.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="드립백 사용자정보 테이블 명세" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="119">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -435,18 +435,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>password</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>roll</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>title</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -500,6 +492,18 @@
   </si>
   <si>
     <t>seqC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dates</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pwd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dates</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1219,7 +1223,7 @@
   <dimension ref="B1:L20"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2028,7 +2032,7 @@
         <v>47</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>39</v>
@@ -2053,7 +2057,7 @@
         <v>52</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>53</v>
@@ -2078,7 +2082,7 @@
         <v>55</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>56</v>
@@ -2278,7 +2282,7 @@
   <dimension ref="B1:L20"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3061,7 +3065,7 @@
         <v>69</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>67</v>
@@ -3086,7 +3090,7 @@
         <v>34</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>35</v>
@@ -3111,7 +3115,7 @@
         <v>76</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>35</v>
@@ -3324,7 +3328,7 @@
   <dimension ref="B1:L20"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4108,7 +4112,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>23</v>
@@ -4133,7 +4137,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>23</v>
@@ -4158,7 +4162,7 @@
         <v>36</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>74</v>
@@ -4181,7 +4185,7 @@
         <v>36</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>37</v>
@@ -4378,8 +4382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5164,7 +5168,7 @@
         <v>84</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F6" s="20" t="s">
         <v>86</v>
@@ -5190,7 +5194,7 @@
         <v>43</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>50</v>
@@ -5215,7 +5219,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>23</v>
@@ -5240,7 +5244,7 @@
         <v>42</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>63</v>
@@ -5265,7 +5269,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>23</v>
@@ -5290,7 +5294,7 @@
         <v>46</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>48</v>
@@ -5318,7 +5322,7 @@
         <v>59</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>58</v>
@@ -5341,7 +5345,7 @@
         <v>59</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>58</v>
@@ -6264,7 +6268,7 @@
         <v>84</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F6" s="20" t="s">
         <v>86</v>
@@ -6290,7 +6294,7 @@
         <v>43</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>50</v>
@@ -6315,7 +6319,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>23</v>
@@ -6340,7 +6344,7 @@
         <v>42</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>63</v>
@@ -6365,7 +6369,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>23</v>
@@ -6390,7 +6394,7 @@
         <v>46</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>48</v>
@@ -6418,7 +6422,7 @@
         <v>59</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>58</v>
@@ -6441,7 +6445,7 @@
         <v>59</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>58</v>
@@ -6578,8 +6582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q20"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7362,7 +7366,7 @@
         <v>43</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>50</v>
@@ -7386,7 +7390,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>23</v>
@@ -7411,7 +7415,7 @@
         <v>42</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>63</v>
@@ -7436,7 +7440,7 @@
         <v>20</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>23</v>
@@ -7455,13 +7459,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>48</v>
@@ -7483,7 +7487,7 @@
         <v>59</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>58</v>
@@ -7511,7 +7515,7 @@
         <v>59</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>58</v>

--- a/dripbagTable.xlsx
+++ b/dripbagTable.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkSpace\Java\Team_DoubleJ_k\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\202007291619\Desktop\TeamProject_Dripbag\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="드립백 사용자정보 테이블 명세" sheetId="3" r:id="rId1"/>
@@ -455,10 +455,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>content</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>time</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -467,22 +463,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>score</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>score</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>writer</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>like</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>views</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -504,6 +488,22 @@
   </si>
   <si>
     <t>dates</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_notice</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>likes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cont</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>times</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1222,8 +1222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L20"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2032,7 +2032,7 @@
         <v>47</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>39</v>
@@ -2082,7 +2082,7 @@
         <v>55</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>56</v>
@@ -3065,7 +3065,7 @@
         <v>69</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>67</v>
@@ -3328,7 +3328,7 @@
   <dimension ref="B1:L20"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4112,7 +4112,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>23</v>
@@ -4185,7 +4185,7 @@
         <v>36</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>37</v>
@@ -4383,7 +4383,7 @@
   <dimension ref="B1:Q20"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E11" sqref="E11:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5168,7 +5168,7 @@
         <v>84</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F6" s="20" t="s">
         <v>86</v>
@@ -5194,7 +5194,7 @@
         <v>43</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>50</v>
@@ -5219,7 +5219,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>23</v>
@@ -5244,7 +5244,7 @@
         <v>42</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>63</v>
@@ -5269,7 +5269,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>23</v>
@@ -5294,7 +5294,7 @@
         <v>46</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>48</v>
@@ -5322,7 +5322,7 @@
         <v>59</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>58</v>
@@ -5345,7 +5345,7 @@
         <v>59</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>58</v>
@@ -5483,7 +5483,7 @@
   <dimension ref="B1:Q20"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E11" sqref="E11:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6268,7 +6268,7 @@
         <v>84</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F6" s="20" t="s">
         <v>86</v>
@@ -6294,7 +6294,7 @@
         <v>43</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>50</v>
@@ -6319,7 +6319,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>23</v>
@@ -6344,7 +6344,7 @@
         <v>42</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>63</v>
@@ -6369,7 +6369,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>23</v>
@@ -6394,7 +6394,7 @@
         <v>46</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>48</v>
@@ -6422,7 +6422,7 @@
         <v>59</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>58</v>
@@ -6445,7 +6445,7 @@
         <v>59</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>58</v>
@@ -6582,8 +6582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7262,7 +7262,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
@@ -7366,7 +7366,7 @@
         <v>43</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>50</v>
@@ -7390,7 +7390,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>23</v>
@@ -7415,7 +7415,7 @@
         <v>42</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>63</v>
@@ -7459,13 +7459,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>48</v>
@@ -7487,7 +7487,7 @@
         <v>59</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>58</v>
@@ -7515,7 +7515,7 @@
         <v>59</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>58</v>

--- a/dripbagTable.xlsx
+++ b/dripbagTable.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\202007291619\Desktop\TeamProject_Dripbag\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\202007291435\Desktop\팀프로젝트\Team_DoubleJ_k\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="드립백 사용자정보 테이블 명세" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="130">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -343,10 +343,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>tbl_gcoment</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>tbl_user</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -504,6 +500,54 @@
   </si>
   <si>
     <t>times</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(100)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gc_seq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gc_seqC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gc_writer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gc_date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gc_time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gc_title</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gc_explain</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gc_likes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gc_views</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_gcomment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR2(4)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1222,8 +1266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:H9"/>
+    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1903,7 +1947,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
@@ -1982,7 +2026,7 @@
         <v>21</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>22</v>
@@ -2007,13 +2051,13 @@
         <v>43</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>40</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
@@ -2032,13 +2076,13 @@
         <v>47</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>39</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
@@ -2057,13 +2101,13 @@
         <v>52</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>53</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
@@ -2082,7 +2126,7 @@
         <v>55</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>56</v>
@@ -2961,7 +3005,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
@@ -2982,7 +3026,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
@@ -3040,7 +3084,7 @@
         <v>21</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>22</v>
@@ -3065,7 +3109,7 @@
         <v>69</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>67</v>
@@ -3090,7 +3134,7 @@
         <v>34</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>35</v>
@@ -3115,7 +3159,7 @@
         <v>76</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>35</v>
@@ -4008,7 +4052,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
@@ -4029,7 +4073,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
@@ -4087,7 +4131,7 @@
         <v>71</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>72</v>
@@ -4106,13 +4150,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>23</v>
@@ -4137,7 +4181,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>23</v>
@@ -4162,7 +4206,7 @@
         <v>36</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>74</v>
@@ -4185,7 +4229,7 @@
         <v>36</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>37</v>
@@ -4382,8 +4426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q20"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:E12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5062,7 +5106,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
@@ -5083,7 +5127,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
@@ -5141,7 +5185,7 @@
         <v>59</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>58</v>
@@ -5154,7 +5198,7 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -5162,25 +5206,25 @@
         <v>2</v>
       </c>
       <c r="C6" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="20" t="s">
-        <v>84</v>
-      </c>
       <c r="E6" s="20" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
       <c r="L6" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -5191,10 +5235,10 @@
         <v>65</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>50</v>
@@ -5219,7 +5263,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>23</v>
@@ -5244,7 +5288,7 @@
         <v>42</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>63</v>
@@ -5269,10 +5313,10 @@
         <v>20</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>23</v>
+        <v>129</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>33</v>
@@ -5294,7 +5338,7 @@
         <v>46</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>48</v>
@@ -5322,7 +5366,7 @@
         <v>59</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>58</v>
@@ -5345,7 +5389,7 @@
         <v>59</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>58</v>
@@ -5483,7 +5527,7 @@
   <dimension ref="B1:Q20"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:E12"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6137,7 +6181,7 @@
         <v>9</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D1" s="27" t="s">
         <v>14</v>
@@ -6162,7 +6206,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
@@ -6183,7 +6227,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
@@ -6241,7 +6285,7 @@
         <v>59</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>58</v>
@@ -6254,7 +6298,7 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -6262,25 +6306,25 @@
         <v>2</v>
       </c>
       <c r="C6" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="20" t="s">
-        <v>84</v>
-      </c>
       <c r="E6" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
       <c r="L6" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -6294,7 +6338,7 @@
         <v>43</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>50</v>
@@ -6319,7 +6363,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>23</v>
@@ -6344,7 +6388,7 @@
         <v>42</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>63</v>
@@ -6369,7 +6413,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>23</v>
@@ -6394,7 +6438,7 @@
         <v>46</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>48</v>
@@ -6422,7 +6466,7 @@
         <v>59</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>58</v>
@@ -6445,7 +6489,7 @@
         <v>59</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>58</v>
@@ -7237,7 +7281,7 @@
         <v>9</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D1" s="27" t="s">
         <v>14</v>
@@ -7262,7 +7306,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
@@ -7283,7 +7327,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
@@ -7341,7 +7385,7 @@
         <v>59</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>58</v>
@@ -7366,7 +7410,7 @@
         <v>43</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>50</v>
@@ -7390,7 +7434,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>23</v>
@@ -7415,7 +7459,7 @@
         <v>42</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>63</v>
@@ -7440,7 +7484,7 @@
         <v>20</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>23</v>
@@ -7459,13 +7503,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>48</v>
@@ -7487,7 +7531,7 @@
         <v>59</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>58</v>
@@ -7515,7 +7559,7 @@
         <v>59</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>58</v>

--- a/dripbagTable.xlsx
+++ b/dripbagTable.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\202007291619\Desktop\TeamProject_Dripbag\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizwork\workspace\TeamProject\as\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="드립백 사용자정보 테이블 명세" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="120">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -355,10 +355,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>tbl_nRanking</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>tbl_gRanking</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -391,10 +387,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>tbl_nComent</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>News 랭킹 댓글 테이블</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -504,6 +496,18 @@
   </si>
   <si>
     <t>times</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_newsR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_newsC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>seq</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -568,7 +572,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -769,13 +773,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -851,6 +868,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -877,6 +897,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1222,8 +1251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:H9"/>
+    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1880,23 +1909,23 @@
       <c r="C1" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="29" t="s">
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="29"/>
+      <c r="I1" s="30"/>
       <c r="J1" s="12">
         <v>44109</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="30"/>
+      <c r="L1" s="31"/>
     </row>
     <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="15" t="s">
@@ -1905,36 +1934,36 @@
       <c r="C2" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="31" t="s">
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="31"/>
+      <c r="I2" s="32"/>
       <c r="J2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="32"/>
-      <c r="L2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="34"/>
     </row>
     <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="27"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
@@ -1982,7 +2011,7 @@
         <v>21</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>22</v>
@@ -2007,13 +2036,13 @@
         <v>43</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>40</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
@@ -2032,13 +2061,13 @@
         <v>47</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>39</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
@@ -2057,13 +2086,13 @@
         <v>52</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>53</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
@@ -2082,7 +2111,7 @@
         <v>55</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>56</v>
@@ -2281,8 +2310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L20"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2938,164 +2967,164 @@
       <c r="C1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="29" t="s">
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="29"/>
+      <c r="I1" s="30"/>
       <c r="J1" s="12">
         <v>44109</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="30"/>
+      <c r="L1" s="31"/>
     </row>
     <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="31"/>
+      <c r="I2" s="32"/>
       <c r="J2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="32"/>
-      <c r="L2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="34"/>
     </row>
     <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="26"/>
+      <c r="C3" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="27"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="35" t="s">
         <v>5</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="7">
         <v>1</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="13" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="F5" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3" t="s">
+      <c r="G5" s="13"/>
+      <c r="H5" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
       <c r="L5" s="17"/>
     </row>
-    <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="9">
         <v>2</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="13" t="s">
         <v>69</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="F6" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="H6" s="3"/>
+      <c r="H6" s="13"/>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
       <c r="L6" s="21"/>
     </row>
-    <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="9">
         <v>3</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="13" t="s">
         <v>34</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="F7" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="13" t="s">
         <v>33</v>
       </c>
       <c r="H7" s="13"/>
@@ -3104,20 +3133,20 @@
       <c r="K7" s="13"/>
       <c r="L7" s="21"/>
     </row>
-    <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="9">
         <v>4</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="13" t="s">
         <v>76</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="F8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" s="13" t="s">
         <v>35</v>
       </c>
       <c r="G8" s="13"/>
@@ -3127,14 +3156,14 @@
       <c r="K8" s="13"/>
       <c r="L8" s="21"/>
     </row>
-    <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="9">
         <v>5</v>
       </c>
       <c r="C9" s="13"/>
-      <c r="D9" s="3"/>
+      <c r="D9" s="13"/>
       <c r="E9" s="13"/>
-      <c r="F9" s="3"/>
+      <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
@@ -3142,14 +3171,14 @@
       <c r="K9" s="13"/>
       <c r="L9" s="21"/>
     </row>
-    <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="9">
         <v>6</v>
       </c>
       <c r="C10" s="13"/>
-      <c r="D10" s="3"/>
+      <c r="D10" s="13"/>
       <c r="E10" s="13"/>
-      <c r="F10" s="3"/>
+      <c r="F10" s="13"/>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
@@ -3157,14 +3186,14 @@
       <c r="K10" s="13"/>
       <c r="L10" s="21"/>
     </row>
-    <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="9">
         <v>7</v>
       </c>
       <c r="C11" s="13"/>
-      <c r="D11" s="3"/>
+      <c r="D11" s="13"/>
       <c r="E11" s="13"/>
-      <c r="F11" s="3"/>
+      <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
@@ -3172,14 +3201,14 @@
       <c r="K11" s="13"/>
       <c r="L11" s="21"/>
     </row>
-    <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="9">
         <v>8</v>
       </c>
       <c r="C12" s="13"/>
-      <c r="D12" s="3"/>
+      <c r="D12" s="13"/>
       <c r="E12" s="13"/>
-      <c r="F12" s="3"/>
+      <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
@@ -3187,12 +3216,12 @@
       <c r="K12" s="13"/>
       <c r="L12" s="21"/>
     </row>
-    <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="9">
         <v>9</v>
       </c>
       <c r="C13" s="13"/>
-      <c r="D13" s="3"/>
+      <c r="D13" s="13"/>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
@@ -3202,14 +3231,14 @@
       <c r="K13" s="13"/>
       <c r="L13" s="21"/>
     </row>
-    <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="9">
         <v>10</v>
       </c>
       <c r="C14" s="13"/>
-      <c r="D14" s="3"/>
+      <c r="D14" s="13"/>
       <c r="E14" s="13"/>
-      <c r="F14" s="3"/>
+      <c r="F14" s="13"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
@@ -3217,14 +3246,14 @@
       <c r="K14" s="13"/>
       <c r="L14" s="21"/>
     </row>
-    <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="9">
         <v>11</v>
       </c>
       <c r="C15" s="13"/>
-      <c r="D15" s="3"/>
+      <c r="D15" s="13"/>
       <c r="E15" s="13"/>
-      <c r="F15" s="3"/>
+      <c r="F15" s="13"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
@@ -3236,10 +3265,10 @@
       <c r="B16" s="9">
         <v>12</v>
       </c>
-      <c r="C16" s="20"/>
+      <c r="C16" s="13"/>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
-      <c r="F16" s="3"/>
+      <c r="F16" s="13"/>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
@@ -3247,7 +3276,7 @@
       <c r="K16" s="13"/>
       <c r="L16" s="21"/>
     </row>
-    <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="9">
         <v>13</v>
       </c>
@@ -3269,7 +3298,7 @@
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
-      <c r="F18" s="3"/>
+      <c r="F18" s="13"/>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
@@ -3300,11 +3329,11 @@
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
       <c r="L20" s="19"/>
     </row>
   </sheetData>
@@ -3328,7 +3357,7 @@
   <dimension ref="B1:L20"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E14" sqref="E14:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3985,85 +4014,85 @@
       <c r="C1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="29" t="s">
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="29"/>
+      <c r="I1" s="30"/>
       <c r="J1" s="12">
         <v>44109</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="30"/>
+      <c r="L1" s="31"/>
     </row>
     <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="31"/>
+      <c r="I2" s="32"/>
       <c r="J2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="32"/>
-      <c r="L2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="34"/>
     </row>
     <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="26"/>
+      <c r="C3" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="27"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="35" t="s">
         <v>3</v>
       </c>
       <c r="J4" s="5" t="s">
@@ -4076,48 +4105,48 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="7">
         <v>1</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="13" t="s">
         <v>71</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="F5" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3" t="s">
+      <c r="G5" s="13"/>
+      <c r="H5" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="I5" s="3"/>
+      <c r="I5" s="13"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="17"/>
     </row>
-    <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="9">
         <v>2</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="F6" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="13" t="s">
         <v>33</v>
       </c>
       <c r="H6" s="13"/>
@@ -4126,23 +4155,23 @@
       <c r="K6" s="13"/>
       <c r="L6" s="21"/>
     </row>
-    <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="9">
         <v>3</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="F7" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="13" t="s">
         <v>33</v>
       </c>
       <c r="H7" s="13"/>
@@ -4151,60 +4180,60 @@
       <c r="K7" s="13"/>
       <c r="L7" s="21"/>
     </row>
-    <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="9">
         <v>4</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="13" t="s">
         <v>36</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F8" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="G8" s="3"/>
+      <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
       <c r="L8" s="21"/>
     </row>
-    <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="9">
         <v>5</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="13" t="s">
         <v>36</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="F9" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F9" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
       <c r="L9" s="21"/>
     </row>
-    <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="9">
         <v>6</v>
       </c>
       <c r="C10" s="13"/>
-      <c r="D10" s="3"/>
+      <c r="D10" s="13"/>
       <c r="E10" s="13"/>
-      <c r="F10" s="3"/>
+      <c r="F10" s="13"/>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
@@ -4212,14 +4241,14 @@
       <c r="K10" s="13"/>
       <c r="L10" s="21"/>
     </row>
-    <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="9">
         <v>7</v>
       </c>
       <c r="C11" s="13"/>
-      <c r="D11" s="3"/>
+      <c r="D11" s="13"/>
       <c r="E11" s="13"/>
-      <c r="F11" s="3"/>
+      <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
@@ -4227,14 +4256,14 @@
       <c r="K11" s="13"/>
       <c r="L11" s="21"/>
     </row>
-    <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="9">
         <v>8</v>
       </c>
       <c r="C12" s="13"/>
-      <c r="D12" s="3"/>
+      <c r="D12" s="13"/>
       <c r="E12" s="13"/>
-      <c r="F12" s="3"/>
+      <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
@@ -4242,12 +4271,12 @@
       <c r="K12" s="13"/>
       <c r="L12" s="21"/>
     </row>
-    <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="9">
         <v>9</v>
       </c>
       <c r="C13" s="13"/>
-      <c r="D13" s="3"/>
+      <c r="D13" s="13"/>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
@@ -4257,14 +4286,14 @@
       <c r="K13" s="13"/>
       <c r="L13" s="21"/>
     </row>
-    <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="9">
         <v>10</v>
       </c>
       <c r="C14" s="13"/>
-      <c r="D14" s="3"/>
+      <c r="D14" s="13"/>
       <c r="E14" s="13"/>
-      <c r="F14" s="3"/>
+      <c r="F14" s="13"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
@@ -4272,14 +4301,14 @@
       <c r="K14" s="13"/>
       <c r="L14" s="21"/>
     </row>
-    <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="9">
         <v>11</v>
       </c>
       <c r="C15" s="13"/>
-      <c r="D15" s="3"/>
+      <c r="D15" s="13"/>
       <c r="E15" s="13"/>
-      <c r="F15" s="3"/>
+      <c r="F15" s="13"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
@@ -4292,17 +4321,17 @@
         <v>12</v>
       </c>
       <c r="C16" s="20"/>
-      <c r="D16" s="13"/>
+      <c r="D16" s="16"/>
       <c r="E16" s="13"/>
-      <c r="F16" s="3"/>
+      <c r="F16" s="13"/>
       <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
       <c r="J16" s="13"/>
       <c r="K16" s="13"/>
       <c r="L16" s="21"/>
     </row>
-    <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="9">
         <v>13</v>
       </c>
@@ -4324,7 +4353,7 @@
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
-      <c r="F18" s="3"/>
+      <c r="F18" s="13"/>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
@@ -4383,7 +4412,7 @@
   <dimension ref="B1:Q20"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:E12"/>
+      <selection activeCell="C5" sqref="C5:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5039,23 +5068,23 @@
       <c r="C1" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="29" t="s">
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="29"/>
+      <c r="I1" s="30"/>
       <c r="J1" s="12">
         <v>44123</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="30"/>
+      <c r="L1" s="31"/>
     </row>
     <row r="2" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="15" t="s">
@@ -5064,63 +5093,63 @@
       <c r="C2" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="31" t="s">
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="31"/>
+      <c r="I2" s="32"/>
       <c r="J2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="32"/>
-      <c r="L2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="34"/>
     </row>
     <row r="3" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="26"/>
+      <c r="C3" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="27"/>
     </row>
     <row r="4" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="35" t="s">
         <v>4</v>
       </c>
       <c r="K4" s="5" t="s">
@@ -5137,69 +5166,70 @@
       <c r="C5" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="13" t="s">
         <v>59</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="F5" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3" t="s">
+      <c r="G5" s="13"/>
+      <c r="H5" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
       <c r="K5" s="3"/>
       <c r="L5" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="9">
         <v>2</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>88</v>
-      </c>
+      <c r="E6" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="H6" s="37"/>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
       <c r="L6" s="22" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="9">
         <v>3</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="13" t="s">
         <v>43</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="F7" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="13" t="s">
         <v>49</v>
       </c>
       <c r="H7" s="13"/>
@@ -5208,23 +5238,23 @@
       <c r="K7" s="13"/>
       <c r="L7" s="22"/>
     </row>
-    <row r="8" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="9">
         <v>4</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="F8" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="13" t="s">
         <v>49</v>
       </c>
       <c r="H8" s="13"/>
@@ -5233,20 +5263,20 @@
       <c r="K8" s="13"/>
       <c r="L8" s="22"/>
     </row>
-    <row r="9" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="9">
         <v>5</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="13" t="s">
         <v>42</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="F9" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9" s="13" t="s">
         <v>63</v>
       </c>
       <c r="G9" s="13" t="s">
@@ -5265,16 +5295,16 @@
       <c r="C10" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="F10" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="13" t="s">
         <v>33</v>
       </c>
       <c r="H10" s="13"/>
@@ -5283,20 +5313,20 @@
       <c r="K10" s="13"/>
       <c r="L10" s="22"/>
     </row>
-    <row r="11" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="9">
         <v>7</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="13" t="s">
         <v>46</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="F11" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F11" s="13" t="s">
         <v>48</v>
       </c>
       <c r="G11" s="13"/>
@@ -5311,20 +5341,20 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="13"/>
     </row>
-    <row r="12" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="9">
         <v>8</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="13" t="s">
         <v>59</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="F12" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F12" s="13" t="s">
         <v>58</v>
       </c>
       <c r="G12" s="13"/>
@@ -5334,20 +5364,20 @@
       <c r="K12" s="13"/>
       <c r="L12" s="22"/>
     </row>
-    <row r="13" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="9">
         <v>9</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="13" t="s">
         <v>59</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="F13" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" s="13" t="s">
         <v>58</v>
       </c>
       <c r="G13" s="13"/>
@@ -5357,14 +5387,14 @@
       <c r="K13" s="13"/>
       <c r="L13" s="22"/>
     </row>
-    <row r="14" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="9">
         <v>10</v>
       </c>
       <c r="C14" s="13"/>
-      <c r="D14" s="3"/>
+      <c r="D14" s="13"/>
       <c r="E14" s="13"/>
-      <c r="F14" s="3"/>
+      <c r="F14" s="13"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
@@ -5372,14 +5402,14 @@
       <c r="K14" s="13"/>
       <c r="L14" s="22"/>
     </row>
-    <row r="15" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="9">
         <v>11</v>
       </c>
       <c r="C15" s="13"/>
-      <c r="D15" s="3"/>
+      <c r="D15" s="13"/>
       <c r="E15" s="13"/>
-      <c r="F15" s="3"/>
+      <c r="F15" s="13"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
@@ -5391,10 +5421,10 @@
       <c r="B16" s="9">
         <v>12</v>
       </c>
-      <c r="C16" s="20"/>
+      <c r="C16" s="13"/>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
-      <c r="F16" s="3"/>
+      <c r="F16" s="13"/>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
@@ -5402,7 +5432,7 @@
       <c r="K16" s="13"/>
       <c r="L16" s="22"/>
     </row>
-    <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="9">
         <v>13</v>
       </c>
@@ -5424,7 +5454,7 @@
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
-      <c r="F18" s="3"/>
+      <c r="F18" s="13"/>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
@@ -5483,7 +5513,7 @@
   <dimension ref="B1:Q20"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:E12"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6137,90 +6167,90 @@
         <v>9</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="D1" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="29" t="s">
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="29"/>
+      <c r="I1" s="30"/>
       <c r="J1" s="12">
         <v>44123</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="30"/>
+      <c r="L1" s="31"/>
     </row>
     <row r="2" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="31"/>
+      <c r="I2" s="32"/>
       <c r="J2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="32"/>
-      <c r="L2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="34"/>
     </row>
     <row r="3" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="26"/>
+      <c r="C3" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="27"/>
     </row>
     <row r="4" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="35" t="s">
         <v>4</v>
       </c>
       <c r="K4" s="5" t="s">
@@ -6234,127 +6264,128 @@
       <c r="B5" s="7">
         <v>1</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="E5" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="F5" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3" t="s">
+      <c r="G5" s="25"/>
+      <c r="H5" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
       <c r="K5" s="3"/>
       <c r="L5" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="9">
         <v>2</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
+      <c r="E6" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="H6" s="36"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
       <c r="K6" s="13"/>
       <c r="L6" s="23" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="9">
         <v>3</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="E7" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
       <c r="K7" s="13"/>
       <c r="L7" s="23"/>
     </row>
-    <row r="8" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="9">
         <v>4</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="F8" s="3" t="s">
+      <c r="E8" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
       <c r="K8" s="13"/>
       <c r="L8" s="23"/>
     </row>
-    <row r="9" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="9">
         <v>5</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="F9" s="3" t="s">
+      <c r="E9" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
       <c r="K9" s="13"/>
       <c r="L9" s="23"/>
     </row>
@@ -6362,47 +6393,47 @@
       <c r="B10" s="9">
         <v>6</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="F10" s="3" t="s">
+      <c r="E10" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
       <c r="K10" s="13"/>
       <c r="L10" s="23"/>
     </row>
-    <row r="11" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="9">
         <v>7</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="F11" s="3" t="s">
+      <c r="E11" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="F11" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
       <c r="K11" s="13"/>
       <c r="L11" s="23"/>
       <c r="M11" s="13"/>
@@ -6411,79 +6442,79 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="13"/>
     </row>
-    <row r="12" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="9">
         <v>8</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="F12" s="3" t="s">
+      <c r="E12" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="F12" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
       <c r="K12" s="13"/>
       <c r="L12" s="23"/>
     </row>
-    <row r="13" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="9">
         <v>9</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="F13" s="3" t="s">
+      <c r="E13" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
       <c r="K13" s="13"/>
       <c r="L13" s="23"/>
     </row>
-    <row r="14" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="9">
         <v>10</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
       <c r="K14" s="13"/>
       <c r="L14" s="23"/>
     </row>
-    <row r="15" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="9">
         <v>11</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="3"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
       <c r="E15" s="13"/>
-      <c r="F15" s="3"/>
+      <c r="F15" s="13"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
       <c r="K15" s="13"/>
       <c r="L15" s="23"/>
     </row>
@@ -6494,7 +6525,7 @@
       <c r="C16" s="20"/>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
-      <c r="F16" s="3"/>
+      <c r="F16" s="13"/>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
@@ -6502,7 +6533,7 @@
       <c r="K16" s="13"/>
       <c r="L16" s="23"/>
     </row>
-    <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="9">
         <v>13</v>
       </c>
@@ -6524,7 +6555,7 @@
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
-      <c r="F18" s="3"/>
+      <c r="F18" s="13"/>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
@@ -6582,8 +6613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q20"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7237,84 +7268,84 @@
         <v>9</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="D1" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="29" t="s">
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="29"/>
+      <c r="I1" s="30"/>
       <c r="J1" s="12">
         <v>44123</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="30"/>
+      <c r="L1" s="31"/>
     </row>
     <row r="2" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="31"/>
+      <c r="I2" s="32"/>
       <c r="J2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="32"/>
-      <c r="L2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="34"/>
     </row>
     <row r="3" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="26"/>
+      <c r="C3" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="27"/>
     </row>
     <row r="4" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="35" t="s">
         <v>2</v>
       </c>
       <c r="I4" s="5" t="s">
@@ -7330,24 +7361,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="7">
         <v>1</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="13" t="s">
         <v>59</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="F5" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3" t="s">
+      <c r="G5" s="13"/>
+      <c r="H5" s="13" t="s">
         <v>60</v>
       </c>
       <c r="I5" s="3"/>
@@ -7355,47 +7386,48 @@
       <c r="K5" s="3"/>
       <c r="L5" s="17"/>
     </row>
-    <row r="6" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="9">
         <v>2</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="13" t="s">
         <v>43</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="F6" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F6" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="13" t="s">
         <v>49</v>
       </c>
+      <c r="H6" s="37"/>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
       <c r="L6" s="24"/>
     </row>
-    <row r="7" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="9">
         <v>3</v>
       </c>
       <c r="C7" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="F7" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="13" t="s">
         <v>49</v>
       </c>
       <c r="H7" s="13"/>
@@ -7404,20 +7436,20 @@
       <c r="K7" s="13"/>
       <c r="L7" s="24"/>
     </row>
-    <row r="8" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="9">
         <v>4</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="13" t="s">
         <v>42</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="F8" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F8" s="13" t="s">
         <v>63</v>
       </c>
       <c r="G8" s="13" t="s">
@@ -7429,23 +7461,23 @@
       <c r="K8" s="13"/>
       <c r="L8" s="24"/>
     </row>
-    <row r="9" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="9">
         <v>5</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="F9" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="13" t="s">
         <v>33</v>
       </c>
       <c r="H9" s="13"/>
@@ -7459,37 +7491,38 @@
         <v>6</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="D10" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>46</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="F10" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" s="13" t="s">
         <v>48</v>
       </c>
+      <c r="G10" s="37"/>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
       <c r="L10" s="24"/>
     </row>
-    <row r="11" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="9">
         <v>7</v>
       </c>
       <c r="C11" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="13" t="s">
         <v>59</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="F11" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F11" s="13" t="s">
         <v>58</v>
       </c>
       <c r="G11" s="13"/>
@@ -7511,13 +7544,13 @@
       <c r="C12" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="13" t="s">
         <v>59</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="F12" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F12" s="13" t="s">
         <v>58</v>
       </c>
       <c r="G12" s="13"/>
@@ -7527,10 +7560,14 @@
       <c r="K12" s="13"/>
       <c r="L12" s="24"/>
     </row>
-    <row r="13" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="9">
         <v>9</v>
       </c>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
@@ -7538,14 +7575,14 @@
       <c r="K13" s="13"/>
       <c r="L13" s="24"/>
     </row>
-    <row r="14" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="9">
         <v>10</v>
       </c>
       <c r="C14" s="13"/>
-      <c r="D14" s="3"/>
+      <c r="D14" s="13"/>
       <c r="E14" s="13"/>
-      <c r="F14" s="3"/>
+      <c r="F14" s="13"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
@@ -7553,14 +7590,14 @@
       <c r="K14" s="13"/>
       <c r="L14" s="24"/>
     </row>
-    <row r="15" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="9">
         <v>11</v>
       </c>
       <c r="C15" s="13"/>
-      <c r="D15" s="3"/>
+      <c r="D15" s="13"/>
       <c r="E15" s="13"/>
-      <c r="F15" s="3"/>
+      <c r="F15" s="13"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
@@ -7572,10 +7609,10 @@
       <c r="B16" s="9">
         <v>12</v>
       </c>
-      <c r="C16" s="20"/>
+      <c r="C16" s="13"/>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
-      <c r="F16" s="3"/>
+      <c r="F16" s="13"/>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
@@ -7583,7 +7620,7 @@
       <c r="K16" s="13"/>
       <c r="L16" s="24"/>
     </row>
-    <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="9">
         <v>13</v>
       </c>
@@ -7605,7 +7642,7 @@
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
-      <c r="F18" s="3"/>
+      <c r="F18" s="13"/>
       <c r="G18" s="13"/>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>

--- a/dripbagTable.xlsx
+++ b/dripbagTable.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkSpace\Java\Spring\Team_DoubleJ_k\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\202007291435\Desktop\팀프로젝트\Team_DoubleJ_k\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="드립백 사용자정보 테이블 명세" sheetId="3" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="드립백 뉴스 테이블 명세" sheetId="5" r:id="rId3"/>
     <sheet name="구글댓글 테이블 명세" sheetId="8" r:id="rId4"/>
     <sheet name="뉴스댓글 테이블 명세" sheetId="9" r:id="rId5"/>
+    <sheet name="공지사항 테이블 명세" sheetId="11" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="130">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -242,18 +243,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>d_roll</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>d_password</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>d_email</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>NUMBER</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -266,10 +255,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>d_date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>VARCHAR2(10)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -354,58 +339,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>d_seq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>작성날짜</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>tbl_gcoment</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>tbl_user</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>gt_seq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gt_date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gt_title</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gt_img</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>n_seq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>n_date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>n_title</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>n_img</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>n_content</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>게시날짜</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -426,7 +367,155 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>gc_email</t>
+    <t>트랜드 검색어와 JOIN 하기위한 SEQ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구글 댓글 고유 테이블 SEQ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL UNIQUE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뉴스랭킹 댓글</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_nComent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>News 랭킹 댓글 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Google 랭킹 댓글 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>크롤링해온 뉴스 정보를 저장할 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>크롤링해온 구글 트랜드 정보를 저장할 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뉴스 댓글 고유 테이블 SEQ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNIQUE NOT NULL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT 1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>seq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>roll</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>img</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>img</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>writer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>views</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>seqC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dates</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pwd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dates</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_notice</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>likes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cont</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>times</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(100)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gc_seq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gc_seqC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gc_writer</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -442,111 +531,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>gc_explan</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gc_score</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gc_click</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>g_seq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gc_seq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>트랜드 검색어와 JOIN 하기위한 SEQ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUMBER</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>구글 댓글 고유 테이블 SEQ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOT NULL UNIQUE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>뉴스랭킹 댓글</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_nComent</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>News 랭킹 댓글 테이블</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Google 랭킹 댓글 테이블</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>크롤링해온 뉴스 정보를 저장할 테이블</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>크롤링해온 구글 트랜드 정보를 저장할 테이블</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nc_seq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nc_email</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nc_date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nc_time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nc_title</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nc_explan</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nc_score</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nc_click</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>뉴스 댓글 고유 테이블 SEQ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UNIQUE NOT NULL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOT NULL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEFAULT 1</t>
+    <t>gc_explain</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gc_likes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gc_views</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_gcomment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR2(4)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -818,7 +819,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -880,6 +881,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1262,8 +1266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1920,61 +1924,61 @@
       <c r="C1" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="28" t="s">
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="28"/>
+      <c r="I1" s="29"/>
       <c r="J1" s="12">
         <v>44109</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="29"/>
+      <c r="L1" s="30"/>
     </row>
     <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="30"/>
+      <c r="I2" s="31"/>
       <c r="J2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="31"/>
-      <c r="L2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="33"/>
     </row>
     <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="26"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
@@ -2022,7 +2026,7 @@
         <v>21</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>22</v>
@@ -2047,13 +2051,13 @@
         <v>43</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>40</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
@@ -2072,13 +2076,13 @@
         <v>47</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>39</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
@@ -2097,13 +2101,13 @@
         <v>52</v>
       </c>
       <c r="E8" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="G8" s="3" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
@@ -2116,16 +2120,16 @@
         <v>5</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G9" s="13" t="s">
         <v>49</v>
@@ -2322,7 +2326,7 @@
   <dimension ref="B1:L20"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:L3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2978,61 +2982,61 @@
       <c r="C1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="28" t="s">
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="28"/>
+      <c r="I1" s="29"/>
       <c r="J1" s="12">
         <v>44109</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="29"/>
+      <c r="L1" s="30"/>
     </row>
     <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="30"/>
+      <c r="I2" s="31"/>
       <c r="J2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="31"/>
-      <c r="L2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="33"/>
     </row>
     <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="25"/>
+      <c r="C3" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="26"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
@@ -3074,13 +3078,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>22</v>
@@ -3102,16 +3106,16 @@
         <v>41</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="13"/>
@@ -3130,7 +3134,7 @@
         <v>34</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>35</v>
@@ -3149,13 +3153,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>35</v>
@@ -3368,7 +3372,7 @@
   <dimension ref="B1:L20"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4025,61 +4029,61 @@
       <c r="C1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="28" t="s">
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="28"/>
+      <c r="I1" s="29"/>
       <c r="J1" s="12">
         <v>44109</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="29"/>
+      <c r="L1" s="30"/>
     </row>
     <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="30"/>
+      <c r="I2" s="31"/>
       <c r="J2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="31"/>
-      <c r="L2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="33"/>
     </row>
     <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="25"/>
+      <c r="C3" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="26"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
@@ -4121,20 +4125,20 @@
         <v>1</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -4146,13 +4150,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>23</v>
@@ -4177,7 +4181,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>23</v>
@@ -4202,10 +4206,10 @@
         <v>36</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="13"/>
@@ -4225,7 +4229,7 @@
         <v>36</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>37</v>
@@ -4422,8 +4426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q20"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5079,61 +5083,61 @@
       <c r="C1" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="28" t="s">
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="28"/>
+      <c r="I1" s="29"/>
       <c r="J1" s="12">
         <v>44123</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="29"/>
+      <c r="L1" s="30"/>
     </row>
     <row r="2" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="30"/>
+      <c r="I2" s="31"/>
       <c r="J2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="31"/>
-      <c r="L2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="33"/>
     </row>
     <row r="3" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="25"/>
+      <c r="C3" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="26"/>
     </row>
     <row r="4" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
@@ -5175,26 +5179,26 @@
         <v>1</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="17" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -5202,25 +5206,25 @@
         <v>2</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
       <c r="L6" s="22" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -5228,13 +5232,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>50</v>
@@ -5253,13 +5257,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>23</v>
@@ -5278,16 +5282,16 @@
         <v>5</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G9" s="13" t="s">
         <v>49</v>
@@ -5309,10 +5313,10 @@
         <v>20</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>23</v>
+        <v>129</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>33</v>
@@ -5334,7 +5338,7 @@
         <v>46</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>48</v>
@@ -5356,16 +5360,16 @@
         <v>8</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
@@ -5379,16 +5383,16 @@
         <v>9</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
@@ -5523,7 +5527,7 @@
   <dimension ref="B1:Q20"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6177,63 +6181,63 @@
         <v>9</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D1" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="28" t="s">
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="28"/>
+      <c r="I1" s="29"/>
       <c r="J1" s="12">
         <v>44123</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="29"/>
+      <c r="L1" s="30"/>
     </row>
     <row r="2" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="30"/>
+      <c r="I2" s="31"/>
       <c r="J2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="31"/>
-      <c r="L2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="33"/>
     </row>
     <row r="3" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="25"/>
+      <c r="C3" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="26"/>
     </row>
     <row r="4" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
@@ -6275,26 +6279,26 @@
         <v>1</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="17" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -6302,25 +6306,25 @@
         <v>2</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
       <c r="L6" s="23" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -6328,13 +6332,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>43</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>50</v>
@@ -6353,13 +6357,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>23</v>
@@ -6378,16 +6382,16 @@
         <v>5</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G9" s="13" t="s">
         <v>49</v>
@@ -6409,7 +6413,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>23</v>
@@ -6434,7 +6438,7 @@
         <v>46</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>48</v>
@@ -6456,16 +6460,16 @@
         <v>8</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
@@ -6479,16 +6483,16 @@
         <v>9</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
@@ -6571,6 +6575,1087 @@
       <c r="J18" s="13"/>
       <c r="K18" s="13"/>
       <c r="L18" s="23"/>
+    </row>
+    <row r="19" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="9">
+        <v>15</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="18"/>
+    </row>
+    <row r="20" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="11">
+        <v>16</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="D1:G2"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="K2:L2"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:Q20"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="258" width="8.88671875" style="1"/>
+    <col min="259" max="259" width="1.33203125" style="1" customWidth="1"/>
+    <col min="260" max="260" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="264" max="265" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="267" max="267" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="268" max="268" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="269" max="514" width="8.88671875" style="1"/>
+    <col min="515" max="515" width="1.33203125" style="1" customWidth="1"/>
+    <col min="516" max="516" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="517" max="517" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="518" max="518" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="519" max="519" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="520" max="521" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="522" max="522" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="523" max="523" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="524" max="524" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="525" max="770" width="8.88671875" style="1"/>
+    <col min="771" max="771" width="1.33203125" style="1" customWidth="1"/>
+    <col min="772" max="772" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="773" max="773" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="774" max="774" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="775" max="775" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="776" max="777" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="778" max="778" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="779" max="779" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="780" max="780" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="781" max="1026" width="8.88671875" style="1"/>
+    <col min="1027" max="1027" width="1.33203125" style="1" customWidth="1"/>
+    <col min="1028" max="1028" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1029" max="1029" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1030" max="1030" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1031" max="1031" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1033" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="1034" max="1034" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1035" max="1035" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1036" max="1036" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1037" max="1282" width="8.88671875" style="1"/>
+    <col min="1283" max="1283" width="1.33203125" style="1" customWidth="1"/>
+    <col min="1284" max="1284" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1285" max="1285" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1286" max="1286" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1287" max="1287" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1289" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="1290" max="1290" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1291" max="1291" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1292" max="1292" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1293" max="1538" width="8.88671875" style="1"/>
+    <col min="1539" max="1539" width="1.33203125" style="1" customWidth="1"/>
+    <col min="1540" max="1540" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1541" max="1541" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1542" max="1542" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1543" max="1543" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1545" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="1546" max="1546" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1547" max="1547" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1548" max="1548" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1549" max="1794" width="8.88671875" style="1"/>
+    <col min="1795" max="1795" width="1.33203125" style="1" customWidth="1"/>
+    <col min="1796" max="1796" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1797" max="1797" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1798" max="1798" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1799" max="1799" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1800" max="1801" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="1802" max="1802" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1803" max="1803" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1804" max="1804" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1805" max="2050" width="8.88671875" style="1"/>
+    <col min="2051" max="2051" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2052" max="2052" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2053" max="2053" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2054" max="2054" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2055" max="2055" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2057" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2058" max="2058" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2059" max="2059" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2060" max="2060" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2061" max="2306" width="8.88671875" style="1"/>
+    <col min="2307" max="2307" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2308" max="2308" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2309" max="2309" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2310" max="2310" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2311" max="2311" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2313" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2314" max="2314" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2315" max="2315" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2316" max="2316" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2317" max="2562" width="8.88671875" style="1"/>
+    <col min="2563" max="2563" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2564" max="2564" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2565" max="2565" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2566" max="2566" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2567" max="2567" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2569" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2570" max="2570" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2571" max="2571" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2572" max="2572" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2573" max="2818" width="8.88671875" style="1"/>
+    <col min="2819" max="2819" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2820" max="2820" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2821" max="2821" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2822" max="2822" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2823" max="2823" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2824" max="2825" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2826" max="2826" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2827" max="2827" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2828" max="2828" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2829" max="3074" width="8.88671875" style="1"/>
+    <col min="3075" max="3075" width="1.33203125" style="1" customWidth="1"/>
+    <col min="3076" max="3076" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3077" max="3077" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3078" max="3078" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3079" max="3079" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3081" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="3082" max="3082" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3083" max="3083" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3084" max="3084" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3085" max="3330" width="8.88671875" style="1"/>
+    <col min="3331" max="3331" width="1.33203125" style="1" customWidth="1"/>
+    <col min="3332" max="3332" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3333" max="3333" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3334" max="3334" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3335" max="3335" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3337" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="3338" max="3338" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3339" max="3339" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3340" max="3340" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3341" max="3586" width="8.88671875" style="1"/>
+    <col min="3587" max="3587" width="1.33203125" style="1" customWidth="1"/>
+    <col min="3588" max="3588" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3589" max="3589" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3590" max="3590" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3591" max="3591" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3593" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="3594" max="3594" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3595" max="3595" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3596" max="3596" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3597" max="3842" width="8.88671875" style="1"/>
+    <col min="3843" max="3843" width="1.33203125" style="1" customWidth="1"/>
+    <col min="3844" max="3844" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3845" max="3845" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3846" max="3846" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3847" max="3847" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3848" max="3849" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="3850" max="3850" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3851" max="3851" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3852" max="3852" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3853" max="4098" width="8.88671875" style="1"/>
+    <col min="4099" max="4099" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4100" max="4100" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4101" max="4101" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4102" max="4102" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4103" max="4103" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4105" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4106" max="4106" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4107" max="4107" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4108" max="4108" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4109" max="4354" width="8.88671875" style="1"/>
+    <col min="4355" max="4355" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4356" max="4356" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4357" max="4357" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4358" max="4358" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4359" max="4359" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4361" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4362" max="4362" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4363" max="4363" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4364" max="4364" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4365" max="4610" width="8.88671875" style="1"/>
+    <col min="4611" max="4611" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4612" max="4612" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4613" max="4613" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4614" max="4614" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4615" max="4615" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4617" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4618" max="4618" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4619" max="4619" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4620" max="4620" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4621" max="4866" width="8.88671875" style="1"/>
+    <col min="4867" max="4867" width="1.33203125" style="1" customWidth="1"/>
+    <col min="4868" max="4868" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4869" max="4869" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4870" max="4870" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4871" max="4871" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4872" max="4873" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4874" max="4874" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4875" max="4875" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4876" max="4876" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4877" max="5122" width="8.88671875" style="1"/>
+    <col min="5123" max="5123" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5124" max="5124" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5125" max="5125" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5126" max="5126" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5127" max="5127" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5129" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5130" max="5130" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5131" max="5131" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5132" max="5132" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5133" max="5378" width="8.88671875" style="1"/>
+    <col min="5379" max="5379" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5380" max="5380" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5381" max="5381" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5382" max="5382" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5383" max="5383" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5385" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5386" max="5386" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5387" max="5387" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5388" max="5388" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5389" max="5634" width="8.88671875" style="1"/>
+    <col min="5635" max="5635" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5636" max="5636" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5637" max="5637" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5638" max="5638" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5639" max="5639" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5641" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5642" max="5642" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5643" max="5643" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5644" max="5644" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5645" max="5890" width="8.88671875" style="1"/>
+    <col min="5891" max="5891" width="1.33203125" style="1" customWidth="1"/>
+    <col min="5892" max="5892" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5893" max="5893" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5894" max="5894" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="5895" max="5895" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5896" max="5897" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="5898" max="5898" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5899" max="5899" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5900" max="5900" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5901" max="6146" width="8.88671875" style="1"/>
+    <col min="6147" max="6147" width="1.33203125" style="1" customWidth="1"/>
+    <col min="6148" max="6148" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6149" max="6149" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6150" max="6150" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6151" max="6151" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6153" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="6154" max="6154" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6155" max="6155" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6156" max="6156" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6157" max="6402" width="8.88671875" style="1"/>
+    <col min="6403" max="6403" width="1.33203125" style="1" customWidth="1"/>
+    <col min="6404" max="6404" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6405" max="6405" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6406" max="6406" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6407" max="6407" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6409" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="6410" max="6410" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6411" max="6411" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6412" max="6412" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6413" max="6658" width="8.88671875" style="1"/>
+    <col min="6659" max="6659" width="1.33203125" style="1" customWidth="1"/>
+    <col min="6660" max="6660" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6661" max="6661" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6662" max="6662" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6663" max="6663" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6665" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="6666" max="6666" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6667" max="6667" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6668" max="6668" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6669" max="6914" width="8.88671875" style="1"/>
+    <col min="6915" max="6915" width="1.33203125" style="1" customWidth="1"/>
+    <col min="6916" max="6916" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6917" max="6917" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6918" max="6918" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6919" max="6919" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6920" max="6921" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="6922" max="6922" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6923" max="6923" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6924" max="6924" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6925" max="7170" width="8.88671875" style="1"/>
+    <col min="7171" max="7171" width="1.33203125" style="1" customWidth="1"/>
+    <col min="7172" max="7172" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7173" max="7173" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7174" max="7174" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7175" max="7175" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7177" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7178" max="7178" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7179" max="7179" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7180" max="7180" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7181" max="7426" width="8.88671875" style="1"/>
+    <col min="7427" max="7427" width="1.33203125" style="1" customWidth="1"/>
+    <col min="7428" max="7428" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7429" max="7429" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7430" max="7430" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7431" max="7431" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7433" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7434" max="7434" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7435" max="7435" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7436" max="7436" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7437" max="7682" width="8.88671875" style="1"/>
+    <col min="7683" max="7683" width="1.33203125" style="1" customWidth="1"/>
+    <col min="7684" max="7684" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7685" max="7685" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7686" max="7686" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7687" max="7687" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7689" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7690" max="7690" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7691" max="7691" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7692" max="7692" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7693" max="7938" width="8.88671875" style="1"/>
+    <col min="7939" max="7939" width="1.33203125" style="1" customWidth="1"/>
+    <col min="7940" max="7940" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7941" max="7941" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7942" max="7942" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="7943" max="7943" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7944" max="7945" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="7946" max="7946" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7947" max="7947" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7948" max="7948" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7949" max="8194" width="8.88671875" style="1"/>
+    <col min="8195" max="8195" width="1.33203125" style="1" customWidth="1"/>
+    <col min="8196" max="8196" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8197" max="8197" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8198" max="8198" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8199" max="8199" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8201" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="8202" max="8202" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8203" max="8203" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8204" max="8204" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8205" max="8450" width="8.88671875" style="1"/>
+    <col min="8451" max="8451" width="1.33203125" style="1" customWidth="1"/>
+    <col min="8452" max="8452" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8453" max="8453" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8454" max="8454" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8455" max="8455" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8457" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="8458" max="8458" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8459" max="8459" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8460" max="8460" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8461" max="8706" width="8.88671875" style="1"/>
+    <col min="8707" max="8707" width="1.33203125" style="1" customWidth="1"/>
+    <col min="8708" max="8708" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8709" max="8709" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8710" max="8710" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8711" max="8711" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8713" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="8714" max="8714" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8715" max="8715" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8716" max="8716" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8717" max="8962" width="8.88671875" style="1"/>
+    <col min="8963" max="8963" width="1.33203125" style="1" customWidth="1"/>
+    <col min="8964" max="8964" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8965" max="8965" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8966" max="8966" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="8967" max="8967" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8968" max="8969" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="8970" max="8970" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8971" max="8971" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8972" max="8972" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8973" max="9218" width="8.88671875" style="1"/>
+    <col min="9219" max="9219" width="1.33203125" style="1" customWidth="1"/>
+    <col min="9220" max="9220" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9221" max="9221" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9222" max="9222" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9223" max="9223" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9225" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9226" max="9226" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9227" max="9227" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9228" max="9228" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9229" max="9474" width="8.88671875" style="1"/>
+    <col min="9475" max="9475" width="1.33203125" style="1" customWidth="1"/>
+    <col min="9476" max="9476" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9477" max="9477" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9478" max="9478" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9479" max="9479" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9481" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9482" max="9482" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9483" max="9483" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9484" max="9484" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9485" max="9730" width="8.88671875" style="1"/>
+    <col min="9731" max="9731" width="1.33203125" style="1" customWidth="1"/>
+    <col min="9732" max="9732" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9733" max="9733" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9734" max="9734" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9735" max="9735" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9737" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9738" max="9738" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9739" max="9739" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9740" max="9740" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9741" max="9986" width="8.88671875" style="1"/>
+    <col min="9987" max="9987" width="1.33203125" style="1" customWidth="1"/>
+    <col min="9988" max="9988" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9989" max="9989" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9990" max="9990" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9991" max="9991" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9992" max="9993" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9994" max="9994" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9995" max="9995" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9996" max="9996" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9997" max="10242" width="8.88671875" style="1"/>
+    <col min="10243" max="10243" width="1.33203125" style="1" customWidth="1"/>
+    <col min="10244" max="10244" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10245" max="10245" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10246" max="10246" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="10247" max="10247" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10249" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="10250" max="10250" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10251" max="10251" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10252" max="10252" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10253" max="10498" width="8.88671875" style="1"/>
+    <col min="10499" max="10499" width="1.33203125" style="1" customWidth="1"/>
+    <col min="10500" max="10500" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10501" max="10501" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10502" max="10502" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="10503" max="10503" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10505" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="10506" max="10506" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10507" max="10507" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10508" max="10508" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10509" max="10754" width="8.88671875" style="1"/>
+    <col min="10755" max="10755" width="1.33203125" style="1" customWidth="1"/>
+    <col min="10756" max="10756" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10757" max="10757" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10758" max="10758" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="10759" max="10759" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10760" max="10761" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="10762" max="10762" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10763" max="10763" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10764" max="10764" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10765" max="11010" width="8.88671875" style="1"/>
+    <col min="11011" max="11011" width="1.33203125" style="1" customWidth="1"/>
+    <col min="11012" max="11012" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11013" max="11013" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11014" max="11014" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11015" max="11015" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11017" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="11018" max="11018" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11019" max="11019" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11020" max="11020" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11021" max="11266" width="8.88671875" style="1"/>
+    <col min="11267" max="11267" width="1.33203125" style="1" customWidth="1"/>
+    <col min="11268" max="11268" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11269" max="11269" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11270" max="11270" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11271" max="11271" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11273" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="11274" max="11274" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11275" max="11275" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11276" max="11276" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11277" max="11522" width="8.88671875" style="1"/>
+    <col min="11523" max="11523" width="1.33203125" style="1" customWidth="1"/>
+    <col min="11524" max="11524" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11525" max="11525" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11526" max="11526" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11527" max="11527" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11529" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="11530" max="11530" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11531" max="11531" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11532" max="11532" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11533" max="11778" width="8.88671875" style="1"/>
+    <col min="11779" max="11779" width="1.33203125" style="1" customWidth="1"/>
+    <col min="11780" max="11780" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11781" max="11781" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11782" max="11782" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11783" max="11783" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11784" max="11785" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="11786" max="11786" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11787" max="11787" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11788" max="11788" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11789" max="12034" width="8.88671875" style="1"/>
+    <col min="12035" max="12035" width="1.33203125" style="1" customWidth="1"/>
+    <col min="12036" max="12036" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12037" max="12037" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12038" max="12038" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12039" max="12039" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12041" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="12042" max="12042" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12043" max="12043" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12044" max="12044" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12045" max="12290" width="8.88671875" style="1"/>
+    <col min="12291" max="12291" width="1.33203125" style="1" customWidth="1"/>
+    <col min="12292" max="12292" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12293" max="12293" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12294" max="12294" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12295" max="12295" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12297" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="12298" max="12298" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12299" max="12299" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12300" max="12300" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12301" max="12546" width="8.88671875" style="1"/>
+    <col min="12547" max="12547" width="1.33203125" style="1" customWidth="1"/>
+    <col min="12548" max="12548" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12549" max="12549" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12550" max="12550" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12551" max="12551" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12553" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="12554" max="12554" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12555" max="12555" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12556" max="12556" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12557" max="12802" width="8.88671875" style="1"/>
+    <col min="12803" max="12803" width="1.33203125" style="1" customWidth="1"/>
+    <col min="12804" max="12804" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12805" max="12805" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12806" max="12806" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12807" max="12807" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12808" max="12809" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="12810" max="12810" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12811" max="12811" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12812" max="12812" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12813" max="13058" width="8.88671875" style="1"/>
+    <col min="13059" max="13059" width="1.33203125" style="1" customWidth="1"/>
+    <col min="13060" max="13060" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13061" max="13061" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13062" max="13062" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13063" max="13063" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13065" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="13066" max="13066" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13067" max="13067" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13068" max="13068" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13069" max="13314" width="8.88671875" style="1"/>
+    <col min="13315" max="13315" width="1.33203125" style="1" customWidth="1"/>
+    <col min="13316" max="13316" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13317" max="13317" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13318" max="13318" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13319" max="13319" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13321" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="13322" max="13322" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13323" max="13323" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13324" max="13324" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13325" max="13570" width="8.88671875" style="1"/>
+    <col min="13571" max="13571" width="1.33203125" style="1" customWidth="1"/>
+    <col min="13572" max="13572" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13573" max="13573" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13574" max="13574" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13575" max="13575" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13577" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="13578" max="13578" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13579" max="13579" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13580" max="13580" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13581" max="13826" width="8.88671875" style="1"/>
+    <col min="13827" max="13827" width="1.33203125" style="1" customWidth="1"/>
+    <col min="13828" max="13828" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13829" max="13829" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13830" max="13830" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="13831" max="13831" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13832" max="13833" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="13834" max="13834" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13835" max="13835" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13836" max="13836" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13837" max="14082" width="8.88671875" style="1"/>
+    <col min="14083" max="14083" width="1.33203125" style="1" customWidth="1"/>
+    <col min="14084" max="14084" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14085" max="14085" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14086" max="14086" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14087" max="14087" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14089" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="14090" max="14090" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14091" max="14091" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14092" max="14092" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14093" max="14338" width="8.88671875" style="1"/>
+    <col min="14339" max="14339" width="1.33203125" style="1" customWidth="1"/>
+    <col min="14340" max="14340" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14341" max="14341" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14342" max="14342" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14343" max="14343" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14345" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="14346" max="14346" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14347" max="14347" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14348" max="14348" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14349" max="14594" width="8.88671875" style="1"/>
+    <col min="14595" max="14595" width="1.33203125" style="1" customWidth="1"/>
+    <col min="14596" max="14596" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14597" max="14597" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14598" max="14598" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14599" max="14599" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14601" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="14602" max="14602" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14603" max="14603" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14604" max="14604" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14605" max="14850" width="8.88671875" style="1"/>
+    <col min="14851" max="14851" width="1.33203125" style="1" customWidth="1"/>
+    <col min="14852" max="14852" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14853" max="14853" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14854" max="14854" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="14855" max="14855" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14856" max="14857" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="14858" max="14858" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14859" max="14859" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14860" max="14860" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14861" max="15106" width="8.88671875" style="1"/>
+    <col min="15107" max="15107" width="1.33203125" style="1" customWidth="1"/>
+    <col min="15108" max="15108" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15109" max="15109" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15110" max="15110" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="15111" max="15111" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15113" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="15114" max="15114" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15115" max="15115" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15116" max="15116" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15117" max="15362" width="8.88671875" style="1"/>
+    <col min="15363" max="15363" width="1.33203125" style="1" customWidth="1"/>
+    <col min="15364" max="15364" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15365" max="15365" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15366" max="15366" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="15367" max="15367" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15369" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="15370" max="15370" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15371" max="15371" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15372" max="15372" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15373" max="15618" width="8.88671875" style="1"/>
+    <col min="15619" max="15619" width="1.33203125" style="1" customWidth="1"/>
+    <col min="15620" max="15620" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15621" max="15621" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15622" max="15622" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="15623" max="15623" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15625" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="15626" max="15626" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15627" max="15627" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15628" max="15628" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15629" max="15874" width="8.88671875" style="1"/>
+    <col min="15875" max="15875" width="1.33203125" style="1" customWidth="1"/>
+    <col min="15876" max="15876" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15877" max="15877" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15878" max="15878" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="15879" max="15879" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15880" max="15881" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="15882" max="15882" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15883" max="15883" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15884" max="15884" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15885" max="16130" width="8.88671875" style="1"/>
+    <col min="16131" max="16131" width="1.33203125" style="1" customWidth="1"/>
+    <col min="16132" max="16132" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16133" max="16133" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16134" max="16134" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="16135" max="16135" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16137" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="16138" max="16138" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16139" max="16139" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16140" max="16140" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16141" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="29"/>
+      <c r="J1" s="12">
+        <v>44123</v>
+      </c>
+      <c r="K1" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="30"/>
+    </row>
+    <row r="2" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="31"/>
+      <c r="J2" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="32"/>
+      <c r="L2" s="33"/>
+    </row>
+    <row r="3" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="26"/>
+    </row>
+    <row r="4" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="17"/>
+    </row>
+    <row r="6" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="9">
+        <v>2</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="24"/>
+    </row>
+    <row r="7" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="9">
+        <v>3</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="24"/>
+    </row>
+    <row r="8" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="9">
+        <v>4</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="24"/>
+    </row>
+    <row r="9" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="9">
+        <v>5</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="24"/>
+    </row>
+    <row r="10" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="9">
+        <v>6</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="24"/>
+    </row>
+    <row r="11" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="9">
+        <v>7</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="13"/>
+    </row>
+    <row r="12" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="9">
+        <v>8</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="24"/>
+    </row>
+    <row r="13" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="9">
+        <v>9</v>
+      </c>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="24"/>
+    </row>
+    <row r="14" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="9">
+        <v>10</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="24"/>
+    </row>
+    <row r="15" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="9">
+        <v>11</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="24"/>
+    </row>
+    <row r="16" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="9">
+        <v>12</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="24"/>
+    </row>
+    <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="9">
+        <v>13</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="24"/>
+    </row>
+    <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="9">
+        <v>14</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="24"/>
     </row>
     <row r="19" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="9">

--- a/dripbagTable.xlsx
+++ b/dripbagTable.xlsx
@@ -5,19 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\202007291435\Desktop\팀프로젝트\Team_DoubleJ_k\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\H2LJH\Desktop\qq\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="드립백 사용자정보 테이블 명세" sheetId="3" r:id="rId1"/>
     <sheet name="드립백 구글트랜드 테이블 명세" sheetId="4" r:id="rId2"/>
     <sheet name="드립백 뉴스 테이블 명세" sheetId="5" r:id="rId3"/>
-    <sheet name="구글댓글 테이블 명세" sheetId="8" r:id="rId4"/>
-    <sheet name="뉴스댓글 테이블 명세" sheetId="9" r:id="rId5"/>
-    <sheet name="공지사항 테이블 명세" sheetId="11" r:id="rId6"/>
+    <sheet name="드립백 구글댓글 테이블 명세" sheetId="8" r:id="rId4"/>
+    <sheet name="드립백 뉴스댓글 테이블 명세" sheetId="9" r:id="rId5"/>
+    <sheet name="드립백 공지사항 테이블 명세" sheetId="11" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="122">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -351,14 +351,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>tbl_nRanking</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_gRanking</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>일련번호</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -387,10 +379,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>tbl_nComent</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>News 랭킹 댓글 테이블</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -507,47 +495,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>gc_seq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gc_seqC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gc_writer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gc_date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gc_time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gc_title</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gc_explain</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gc_likes</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>gc_views</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_gcomment</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>nVARCHAR2(4)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cont</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_newsList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_googleComent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_NewsComent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_googleList</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2026,7 +1994,7 @@
         <v>21</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>22</v>
@@ -2051,13 +2019,13 @@
         <v>43</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>40</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
@@ -2076,13 +2044,13 @@
         <v>47</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>39</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
@@ -2101,13 +2069,13 @@
         <v>52</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>53</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
@@ -2126,7 +2094,7 @@
         <v>55</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>56</v>
@@ -2326,7 +2294,7 @@
   <dimension ref="B1:L20"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E5" sqref="E5:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3005,7 +2973,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
@@ -3026,7 +2994,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
@@ -3084,7 +3052,7 @@
         <v>21</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>22</v>
@@ -3109,7 +3077,7 @@
         <v>69</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>67</v>
@@ -3134,7 +3102,7 @@
         <v>34</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>35</v>
@@ -3159,7 +3127,7 @@
         <v>76</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>35</v>
@@ -3372,7 +3340,7 @@
   <dimension ref="B1:L20"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4052,7 +4020,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
@@ -4073,7 +4041,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
@@ -4131,7 +4099,7 @@
         <v>71</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>72</v>
@@ -4156,7 +4124,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>23</v>
@@ -4181,7 +4149,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>23</v>
@@ -4206,7 +4174,7 @@
         <v>36</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>74</v>
@@ -4229,7 +4197,7 @@
         <v>36</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>37</v>
@@ -4426,8 +4394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5106,7 +5074,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
@@ -5127,7 +5095,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
@@ -5185,7 +5153,7 @@
         <v>59</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>58</v>
@@ -5198,7 +5166,7 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -5206,25 +5174,25 @@
         <v>2</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D6" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="E6" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>85</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
       <c r="L6" s="22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -5235,10 +5203,10 @@
         <v>65</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>50</v>
@@ -5263,7 +5231,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>23</v>
@@ -5288,7 +5256,7 @@
         <v>42</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>63</v>
@@ -5313,10 +5281,10 @@
         <v>20</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>33</v>
@@ -5338,7 +5306,7 @@
         <v>46</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>48</v>
@@ -5366,7 +5334,7 @@
         <v>59</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>58</v>
@@ -5389,7 +5357,7 @@
         <v>59</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>58</v>
@@ -5527,7 +5495,7 @@
   <dimension ref="B1:Q20"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6181,7 +6149,7 @@
         <v>9</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D1" s="27" t="s">
         <v>14</v>
@@ -6206,7 +6174,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
@@ -6227,7 +6195,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
@@ -6285,7 +6253,7 @@
         <v>59</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>58</v>
@@ -6298,7 +6266,7 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -6306,25 +6274,25 @@
         <v>2</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D6" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="E6" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="F6" s="20" t="s">
+      <c r="G6" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
       <c r="L6" s="23" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -6338,7 +6306,7 @@
         <v>43</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>50</v>
@@ -6363,7 +6331,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>23</v>
@@ -6388,7 +6356,7 @@
         <v>42</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>63</v>
@@ -6413,7 +6381,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>23</v>
@@ -6438,7 +6406,7 @@
         <v>46</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>48</v>
@@ -6466,7 +6434,7 @@
         <v>59</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>58</v>
@@ -6489,7 +6457,7 @@
         <v>59</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>58</v>
@@ -6626,8 +6594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q20"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7281,7 +7249,7 @@
         <v>9</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D1" s="27" t="s">
         <v>14</v>
@@ -7306,7 +7274,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
@@ -7327,7 +7295,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
@@ -7385,7 +7353,7 @@
         <v>59</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>58</v>
@@ -7410,7 +7378,7 @@
         <v>43</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>50</v>
@@ -7434,7 +7402,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>23</v>
@@ -7459,7 +7427,7 @@
         <v>42</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>63</v>
@@ -7484,7 +7452,7 @@
         <v>20</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>23</v>
@@ -7503,13 +7471,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>46</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>48</v>
@@ -7531,7 +7499,7 @@
         <v>59</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>58</v>
@@ -7559,7 +7527,7 @@
         <v>59</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>58</v>

--- a/dripbagTable.xlsx
+++ b/dripbagTable.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\H2LJH\Desktop\qq\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\H2LJH\Desktop\dripbag\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="드립백 사용자정보 테이블 명세" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="123">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -179,27 +179,303 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Column</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR2(30)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR2(100)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>날짜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(100)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구글트랜드 댓글</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(20)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(30)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR2(20)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR2(100)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>권한</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가입날짜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일련번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRIMARY KEY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성시각</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조회수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일련번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일련번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRIMARY KEY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>nVARCHAR2(1300)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Column</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nVARCHAR2(30)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nVARCHAR2(100)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>날짜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열(10)</t>
+    <t>이미지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>문자열(225)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성날짜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_user</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시날짜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>일련번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>트랜드 검색어와 JOIN 하기위한 SEQ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL UNIQUE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뉴스랭킹 댓글</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>News 랭킹 댓글 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Google 랭킹 댓글 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>크롤링해온 뉴스 정보를 저장할 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>크롤링해온 구글 트랜드 정보를 저장할 테이블</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뉴스 댓글 고유 테이블 SEQ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNIQUE NOT NULL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT 1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>seq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>roll</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>img</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>img</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>writer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>views</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>seqC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dates</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pwd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dates</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_notice</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>likes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cont</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>times</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -207,207 +483,35 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>구글트랜드 댓글</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>설명내용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열(20)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열(30)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nVARCHAR2(20)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOT NULL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nVARCHAR2(100)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>권한</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>숫자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUMBER</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가입날짜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열(10)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(10)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>일련번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUMBER</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>숫자형</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRIMARY KEY</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>좋아요</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>작성시각</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(10)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>조회수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>작성자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>일련번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(10)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOT NULL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열(10)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>일련번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>숫자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUMBER</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRIMARY KEY</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nVARCHAR2(1300)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이미지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열(225)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>작성날짜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_user</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>게시날짜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>일련번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>숫자형</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>트랜드 검색어와 JOIN 하기위한 SEQ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUMBER</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>구글 댓글 고유 테이블 SEQ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOT NULL UNIQUE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>뉴스랭킹 댓글</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>News 랭킹 댓글 테이블</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Google 랭킹 댓글 테이블</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>크롤링해온 뉴스 정보를 저장할 테이블</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>크롤링해온 구글 트랜드 정보를 저장할 테이블</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>뉴스 댓글 고유 테이블 SEQ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UNIQUE NOT NULL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOT NULL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEFAULT 1</t>
+    <t>nVARCHAR2(4)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cont</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_newsList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_googleComent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_googleList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_NewsComent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>seqJ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구글 댓글 테이블 SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -415,107 +519,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>email</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>roll</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>title</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>img</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>title</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>img</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>title</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>writer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>views</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>내용</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>seqC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dates</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pwd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>dates</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_notice</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>likes</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cont</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>times</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>문자열(100)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nVARCHAR2(4)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cont</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_newsList</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_googleComent</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_NewsComent</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_googleList</t>
+    <t>CLOB</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1234,8 +1238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L20"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1915,7 +1919,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
@@ -1994,7 +1998,7 @@
         <v>21</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>22</v>
@@ -2016,16 +2020,16 @@
         <v>28</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
@@ -2041,16 +2045,16 @@
         <v>27</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
@@ -2063,19 +2067,19 @@
         <v>4</v>
       </c>
       <c r="C8" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="G8" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
@@ -2088,19 +2092,19 @@
         <v>5</v>
       </c>
       <c r="C9" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="G9" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
@@ -2294,7 +2298,7 @@
   <dimension ref="B1:L20"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:I8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2973,7 +2977,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
@@ -2994,7 +2998,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
@@ -3046,13 +3050,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>22</v>
@@ -3071,19 +3075,19 @@
         <v>2</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="13"/>
@@ -3102,7 +3106,7 @@
         <v>34</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>35</v>
@@ -3121,13 +3125,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>76</v>
-      </c>
       <c r="E8" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>35</v>
@@ -3340,7 +3344,7 @@
   <dimension ref="B1:L20"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4020,7 +4024,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
@@ -4041,7 +4045,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
@@ -4064,7 +4068,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>17</v>
@@ -4093,20 +4097,20 @@
         <v>1</v>
       </c>
       <c r="C5" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -4118,13 +4122,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>23</v>
@@ -4149,7 +4153,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>23</v>
@@ -4174,10 +4178,10 @@
         <v>36</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="13"/>
@@ -4197,10 +4201,10 @@
         <v>36</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>37</v>
+        <v>122</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="13"/>
@@ -4395,7 +4399,7 @@
   <dimension ref="B1:Q20"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5049,7 +5053,7 @@
         <v>9</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D1" s="27" t="s">
         <v>14</v>
@@ -5074,7 +5078,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
@@ -5095,7 +5099,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
@@ -5142,31 +5146,31 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="7">
         <v>1</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="C5" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>58</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>22</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="17" t="s">
-        <v>82</v>
+      <c r="L5" s="22" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -5174,25 +5178,25 @@
         <v>2</v>
       </c>
       <c r="C6" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="20" t="s">
-        <v>81</v>
-      </c>
       <c r="E6" s="20" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
-      <c r="L6" s="22" t="s">
-        <v>84</v>
+      <c r="L6" s="17" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -5200,44 +5204,43 @@
         <v>3</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
-      <c r="L7" s="22"/>
     </row>
     <row r="8" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B8" s="9">
         <v>4</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>23</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
@@ -5250,19 +5253,19 @@
         <v>5</v>
       </c>
       <c r="C9" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>63</v>
-      </c>
       <c r="G9" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
@@ -5281,10 +5284,10 @@
         <v>20</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>33</v>
@@ -5300,16 +5303,16 @@
         <v>7</v>
       </c>
       <c r="C11" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="E11" s="13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
@@ -5328,16 +5331,16 @@
         <v>8</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
@@ -5351,16 +5354,16 @@
         <v>9</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
@@ -5495,7 +5498,7 @@
   <dimension ref="B1:Q20"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6149,7 +6152,7 @@
         <v>9</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D1" s="27" t="s">
         <v>14</v>
@@ -6174,7 +6177,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
@@ -6195,7 +6198,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
@@ -6247,26 +6250,26 @@
         <v>1</v>
       </c>
       <c r="C5" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -6274,25 +6277,25 @@
         <v>2</v>
       </c>
       <c r="C6" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="20" t="s">
-        <v>81</v>
-      </c>
       <c r="E6" s="20" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F6" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
       <c r="L6" s="23" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -6300,19 +6303,19 @@
         <v>3</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
@@ -6325,19 +6328,19 @@
         <v>4</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>23</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
@@ -6350,19 +6353,19 @@
         <v>5</v>
       </c>
       <c r="C9" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>63</v>
-      </c>
       <c r="G9" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
@@ -6381,7 +6384,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>23</v>
@@ -6400,16 +6403,16 @@
         <v>7</v>
       </c>
       <c r="C11" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>46</v>
-      </c>
       <c r="E11" s="13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
@@ -6428,16 +6431,16 @@
         <v>8</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
@@ -6451,16 +6454,16 @@
         <v>9</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
@@ -6594,7 +6597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -7249,7 +7252,7 @@
         <v>9</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D1" s="27" t="s">
         <v>14</v>
@@ -7274,7 +7277,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
@@ -7295,7 +7298,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
@@ -7347,20 +7350,20 @@
         <v>1</v>
       </c>
       <c r="C5" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -7372,19 +7375,19 @@
         <v>2</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
@@ -7396,19 +7399,19 @@
         <v>3</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>23</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
@@ -7421,19 +7424,19 @@
         <v>4</v>
       </c>
       <c r="C8" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>63</v>
-      </c>
       <c r="G8" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
@@ -7452,7 +7455,7 @@
         <v>20</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>23</v>
@@ -7471,16 +7474,16 @@
         <v>6</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
@@ -7493,16 +7496,16 @@
         <v>7</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
@@ -7521,16 +7524,16 @@
         <v>8</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>

--- a/dripbagTable.xlsx
+++ b/dripbagTable.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\H2LJH\Desktop\dripbag\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\H2LJH\Desktop\Team_DoubleJ_k\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="드립백 사용자정보 테이블 명세" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="124">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -363,10 +363,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>NOT NULL UNIQUE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>뉴스랭킹 댓글</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -520,6 +516,14 @@
   </si>
   <si>
     <t>CLOB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> NOT NULL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">NOT NULL </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1238,8 +1242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1998,7 +2002,7 @@
         <v>21</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>22</v>
@@ -2023,13 +2027,13 @@
         <v>42</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>39</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
@@ -2048,13 +2052,13 @@
         <v>46</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>38</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
@@ -2073,13 +2077,13 @@
         <v>51</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>52</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
@@ -2098,7 +2102,7 @@
         <v>54</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>55</v>
@@ -2977,7 +2981,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
@@ -2998,7 +3002,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
@@ -3056,7 +3060,7 @@
         <v>21</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>22</v>
@@ -3081,7 +3085,7 @@
         <v>68</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>66</v>
@@ -3106,7 +3110,7 @@
         <v>34</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>35</v>
@@ -3131,7 +3135,7 @@
         <v>75</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>35</v>
@@ -4024,7 +4028,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
@@ -4045,7 +4049,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
@@ -4103,7 +4107,7 @@
         <v>70</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>71</v>
@@ -4128,7 +4132,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>23</v>
@@ -4153,7 +4157,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>23</v>
@@ -4178,7 +4182,7 @@
         <v>36</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>73</v>
@@ -4201,10 +4205,10 @@
         <v>36</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="13"/>
@@ -4399,7 +4403,7 @@
   <dimension ref="B1:Q20"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5078,7 +5082,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
@@ -5099,7 +5103,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
@@ -5157,7 +5161,7 @@
         <v>58</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F5" s="20" t="s">
         <v>22</v>
@@ -5170,7 +5174,7 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -5184,13 +5188,13 @@
         <v>80</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F6" s="20" t="s">
         <v>82</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
@@ -5207,10 +5211,10 @@
         <v>64</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>49</v>
@@ -5234,7 +5238,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>23</v>
@@ -5259,7 +5263,7 @@
         <v>41</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>62</v>
@@ -5284,10 +5288,10 @@
         <v>20</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>33</v>
@@ -5309,7 +5313,7 @@
         <v>45</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>47</v>
@@ -5337,7 +5341,7 @@
         <v>58</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>57</v>
@@ -5360,7 +5364,7 @@
         <v>58</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>57</v>
@@ -5497,8 +5501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q20"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6152,7 +6156,7 @@
         <v>9</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D1" s="27" t="s">
         <v>14</v>
@@ -6177,7 +6181,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
@@ -6198,7 +6202,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
@@ -6256,7 +6260,7 @@
         <v>58</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>57</v>
@@ -6283,19 +6287,19 @@
         <v>80</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F6" s="20" t="s">
         <v>82</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
       <c r="L6" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -6309,7 +6313,7 @@
         <v>42</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>49</v>
@@ -6334,7 +6338,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>23</v>
@@ -6359,7 +6363,7 @@
         <v>41</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>62</v>
@@ -6384,7 +6388,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>23</v>
@@ -6409,7 +6413,7 @@
         <v>45</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>47</v>
@@ -6437,7 +6441,7 @@
         <v>58</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>57</v>
@@ -6460,7 +6464,7 @@
         <v>58</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>57</v>
@@ -7252,7 +7256,7 @@
         <v>9</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D1" s="27" t="s">
         <v>14</v>
@@ -7277,7 +7281,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
@@ -7298,7 +7302,7 @@
         <v>15</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
@@ -7356,7 +7360,7 @@
         <v>58</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>57</v>
@@ -7381,7 +7385,7 @@
         <v>42</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>49</v>
@@ -7405,7 +7409,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>23</v>
@@ -7430,7 +7434,7 @@
         <v>41</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>62</v>
@@ -7455,7 +7459,7 @@
         <v>20</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>23</v>
@@ -7474,13 +7478,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>47</v>
@@ -7502,7 +7506,7 @@
         <v>58</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>57</v>
@@ -7530,7 +7534,7 @@
         <v>58</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>57</v>

--- a/dripbagTable.xlsx
+++ b/dripbagTable.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="드립백 사용자정보 테이블 명세" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="125">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -443,10 +443,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>seqC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>dates</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -491,18 +487,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>tbl_googleComent</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>tbl_googleList</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>tbl_NewsComent</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>seqJ</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -524,6 +512,22 @@
   </si>
   <si>
     <t xml:space="preserve">NOT NULL </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_NewsComment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_googleComment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR2(200)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR2(2000)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2052,7 +2056,7 @@
         <v>46</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>38</v>
@@ -2102,7 +2106,7 @@
         <v>54</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>55</v>
@@ -2981,7 +2985,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
@@ -3085,7 +3089,7 @@
         <v>68</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>66</v>
@@ -4028,7 +4032,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
@@ -4132,7 +4136,7 @@
         <v>20</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>23</v>
@@ -4205,10 +4209,10 @@
         <v>36</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="13"/>
@@ -4403,7 +4407,7 @@
   <dimension ref="B1:Q20"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5082,7 +5086,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
@@ -5161,7 +5165,7 @@
         <v>58</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F5" s="20" t="s">
         <v>22</v>
@@ -5174,7 +5178,7 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="22" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -5188,13 +5192,13 @@
         <v>80</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F6" s="20" t="s">
         <v>82</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
@@ -5211,7 +5215,7 @@
         <v>64</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>100</v>
@@ -5238,7 +5242,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>23</v>
@@ -5263,7 +5267,7 @@
         <v>41</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>62</v>
@@ -5291,7 +5295,7 @@
         <v>95</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>33</v>
@@ -5313,7 +5317,7 @@
         <v>45</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>47</v>
@@ -5341,7 +5345,7 @@
         <v>58</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>57</v>
@@ -5501,8 +5505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6181,7 +6185,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
@@ -6287,13 +6291,13 @@
         <v>80</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="F6" s="20" t="s">
         <v>82</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
@@ -6338,7 +6342,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>23</v>
@@ -6363,7 +6367,7 @@
         <v>41</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>62</v>
@@ -6413,7 +6417,7 @@
         <v>45</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>47</v>
@@ -6441,7 +6445,7 @@
         <v>58</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>57</v>
@@ -6601,8 +6605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q20"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7281,7 +7285,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
@@ -7409,7 +7413,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>23</v>
@@ -7434,7 +7438,7 @@
         <v>41</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>62</v>
@@ -7462,7 +7466,7 @@
         <v>95</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>33</v>
@@ -7484,10 +7488,10 @@
         <v>45</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>47</v>
+        <v>124</v>
       </c>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
@@ -7506,7 +7510,7 @@
         <v>58</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>57</v>
